--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.chadderdon\GitRepos\OptimaRepos\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961"/>
+    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -4790,18 +4790,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4812,14 +4812,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4828,7 +4828,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4837,7 +4837,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4906,7 +4906,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5047,7 +5047,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5251,15 +5251,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5400,13 +5400,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5498,7 +5498,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5612,19 +5612,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6186,7 +6186,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>208</v>
@@ -6567,7 +6567,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7326,7 +7326,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7364,16 +7364,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7573,20 +7573,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8268,7 +8268,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="92" t="s">
         <v>208</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8640,7 +8640,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>207</v>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8881,7 +8881,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9342,22 +9342,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10088,22 +10088,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10462,15 +10462,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10857,7 +10857,7 @@
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11215,7 +11215,7 @@
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="103" t="s">
         <v>221</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11569,6 +11569,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11578,12 +11584,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11601,14 +11601,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12697,22 +12697,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12727,7 +12727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12811,7 +12811,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12836,7 +12836,7 @@
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105" t="s">
         <v>225</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12919,7 +12919,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13073,7 +13073,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13094,23 +13094,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="126" t="s">
         <v>212</v>
       </c>
@@ -13144,7 +13144,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13577,7 +13577,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13835,12 +13835,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
         <v>239</v>
       </c>
@@ -13874,7 +13874,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14569,12 +14569,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14748,12 +14748,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14787,7 +14787,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15823,12 +15823,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15862,7 +15862,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15976,7 +15976,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15997,24 +15997,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>251</v>
@@ -16076,7 +16076,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
         <v>252</v>
       </c>
@@ -16149,12 +16149,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16175,16 +16175,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="133" t="s">
         <v>239</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16228,7 +16228,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16252,12 +16252,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16307,16 +16307,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16586,15 +16586,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16637,7 +16637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -17382,15 +17382,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17409,7 +17409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -17483,20 +17483,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18613,16 +18613,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18789,14 +18789,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18807,7 +18807,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -18906,7 +18906,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19112,7 +19112,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19224,17 +19224,17 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19267,23 +19267,23 @@
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.54471569980476653</v>
+        <v>0.35381383595273463</v>
       </c>
       <c r="D2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.54471569980476653</v>
+        <v>0.35381383595273463</v>
       </c>
       <c r="E2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.44982829694488635</v>
+        <v>0.2418969293934905</v>
       </c>
       <c r="F2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.24457139941017503</v>
+        <v>4.4626605907023831E-2</v>
       </c>
       <c r="G2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.23269074767298425</v>
+        <v>3.6196050479196717E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19293,23 +19293,23 @@
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
-        <v>0.32228430019523346</v>
+        <v>0.38018616404726535</v>
       </c>
       <c r="D3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
-        <v>0.32228430019523346</v>
+        <v>0.38018616404726535</v>
       </c>
       <c r="E3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
-        <v>0.35908666207150708</v>
+        <v>0.37593298863929642</v>
       </c>
       <c r="F3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
-        <v>0.37651189492768178</v>
+        <v>0.19753998276868978</v>
       </c>
       <c r="G3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
-        <v>0.37372365733745416</v>
+        <v>0.17663275954168012</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19318,19 +19318,19 @@
         <v>116</v>
       </c>
       <c r="C4" s="77">
-        <v>8.7000000000000008E-2</v>
+        <v>0.17400000000000002</v>
       </c>
       <c r="D4" s="77">
-        <v>8.7000000000000008E-2</v>
+        <v>0.17400000000000002</v>
       </c>
       <c r="E4" s="77">
-        <v>0.13443032786885245</v>
+        <v>0.2688606557377049</v>
       </c>
       <c r="F4" s="77">
-        <v>0.24673186710341602</v>
+        <v>0.49346373420683204</v>
       </c>
       <c r="G4" s="77">
-        <v>0.25929610299234518</v>
+        <v>0.51859220598469036</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19339,19 +19339,19 @@
         <v>119</v>
       </c>
       <c r="C5" s="77">
-        <v>4.5999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D5" s="77">
-        <v>4.5999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E5" s="77">
-        <v>5.6654713114754097E-2</v>
+        <v>0.11330942622950819</v>
       </c>
       <c r="F5" s="77">
-        <v>0.13218483855872717</v>
+        <v>0.26436967711745435</v>
       </c>
       <c r="G5" s="77">
-        <v>0.13428949199721643</v>
+        <v>0.26857898399443286</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19655,13 +19655,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19791,13 +19791,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19996,15 +19996,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20100,7 +20100,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20173,7 +20173,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="80"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20272,15 +20272,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20335,17 +20335,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961" activeTab="3"/>
+    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -4790,7 +4790,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -11569,12 +11569,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11584,6 +11578,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -16304,7 +16304,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16532,10 +16532,10 @@
         <v>259</v>
       </c>
       <c r="C12" s="115">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="115">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="115">
         <v>0</v>
@@ -19224,7 +19224,7 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" tabRatio="961"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="16420" tabRatio="961" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -40,6 +35,9 @@
     <sheet name="Programs for children" sheetId="72" state="hidden" r:id="rId26"/>
     <sheet name="Programs for PW" sheetId="73" state="hidden" r:id="rId27"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId28"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$38</definedName>
@@ -90,12 +88,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -105,7 +98,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +260,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +318,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +361,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +395,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1271,12 +1264,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1584,7 +1577,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2302,7 +2295,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2338,8 +2331,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2349,7 +2342,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2359,16 +2352,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2401,7 +2394,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2416,7 +2409,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2446,7 +2439,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2465,28 +2458,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2611,7 +2604,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3376,9 +3369,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3403,7 +3393,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3450,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3507,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3564,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3621,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3678,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3735,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +3792,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3849,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3906,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3973,7 +3963,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4020,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4077,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4134,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4191,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,7 +4248,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4305,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4362,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4421,7 +4411,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4461,6 +4451,71 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Baseline year population inputs"/>
+      <sheetName val="Demographic projections"/>
+      <sheetName val="Causes of death"/>
+      <sheetName val="Nutritional status distribution"/>
+      <sheetName val="Breastfeeding distribution"/>
+      <sheetName val="Time trends"/>
+      <sheetName val="IYCF packages"/>
+      <sheetName val="Treatment of SAM"/>
+      <sheetName val="Programs cost and coverage"/>
+      <sheetName val="Program dependencies"/>
+      <sheetName val="Reference programs"/>
+      <sheetName val="Incidence of conditions"/>
+      <sheetName val="Programs target population"/>
+      <sheetName val="Cost curve options"/>
+      <sheetName val="Programs family planning"/>
+      <sheetName val="Programs impacted population"/>
+      <sheetName val="Program risk areas"/>
+      <sheetName val="Population risk areas"/>
+      <sheetName val="IYCF odds ratios"/>
+      <sheetName val="Birth outcome risks"/>
+      <sheetName val="Relative risks"/>
+      <sheetName val="Odds ratios"/>
+      <sheetName val="Programs birth outcomes"/>
+      <sheetName val="Programs anemia"/>
+      <sheetName val="Programs wasting"/>
+      <sheetName val="Programs for children"/>
+      <sheetName val="Programs for PW"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4790,18 +4845,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4812,14 +4867,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4828,7 +4883,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4837,7 +4892,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4906,7 +4961,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5037,7 +5092,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5047,7 +5102,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5230,7 +5285,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5251,15 +5306,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5270,7 +5325,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5279,7 +5334,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>208</v>
       </c>
@@ -5288,7 +5343,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5297,7 +5352,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5306,77 +5361,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5400,85 +5455,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5498,7 +5553,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5612,19 +5667,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5671,7 +5726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6186,7 +6241,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6237,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6282,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6331,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>208</v>
@@ -6567,7 +6622,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6817,7 +6872,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7326,7 +7381,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7364,16 +7419,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7390,7 +7445,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7408,7 +7463,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7426,7 +7481,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7444,7 +7499,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7462,7 +7517,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7480,7 +7535,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7498,7 +7553,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7516,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7534,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7573,20 +7628,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="55"/>
+    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7633,7 +7688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7680,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7724,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7768,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7812,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7856,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7900,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7944,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7988,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8032,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8076,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8120,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8164,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8208,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8252,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8268,7 +8323,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8315,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8360,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8404,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
         <v>208</v>
       </c>
@@ -8448,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8492,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8536,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8580,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8624,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8640,7 +8695,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8688,7 +8743,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8732,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>207</v>
@@ -8777,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8821,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8865,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8881,7 +8936,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8928,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8972,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9016,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9060,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9104,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9149,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9193,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9237,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9281,7 +9336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9342,22 +9397,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9392,7 +9447,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9409,7 +9464,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9426,7 +9481,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9443,7 +9498,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9460,7 +9515,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9479,7 +9534,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9498,7 +9553,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9517,7 +9572,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9536,7 +9591,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9553,7 +9608,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>207</v>
       </c>
@@ -9570,7 +9625,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9587,7 +9642,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9604,7 +9659,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9623,7 +9678,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>208</v>
       </c>
@@ -9642,7 +9697,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9663,7 +9718,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9680,7 +9735,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9699,7 +9754,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9718,7 +9773,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9737,7 +9792,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9756,7 +9811,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9777,7 +9832,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9796,7 +9851,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9813,7 +9868,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9830,7 +9885,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9847,7 +9902,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9866,7 +9921,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9883,7 +9938,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9902,7 +9957,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9919,7 +9974,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9938,7 +9993,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9957,7 +10012,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9976,7 +10031,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -9995,7 +10050,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10014,7 +10069,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10033,7 +10088,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10050,7 +10105,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10088,22 +10143,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10138,7 +10193,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10167,7 +10222,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10196,7 +10251,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10225,7 +10280,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10254,7 +10309,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10283,7 +10338,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10304,7 +10359,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10325,7 +10380,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10346,7 +10401,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10367,7 +10422,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10388,7 +10443,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10407,7 +10462,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10426,7 +10481,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10462,15 +10517,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10496,7 +10551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -10522,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10544,7 +10599,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10566,7 +10621,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10590,7 +10645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10611,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10632,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10655,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10676,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10697,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10720,7 +10775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10741,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10762,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10785,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10806,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10827,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10850,14 +10905,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -10883,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10904,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10925,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -10948,7 +11003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -10969,7 +11024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -10990,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -11013,7 +11068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11034,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11055,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11078,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11099,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11120,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11143,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11164,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11185,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11208,14 +11263,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
         <v>221</v>
       </c>
@@ -11241,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11262,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11283,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11306,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11327,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11348,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11371,7 +11426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11392,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11413,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11436,7 +11491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11457,7 +11512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11478,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11501,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11522,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11543,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11569,6 +11624,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11578,12 +11639,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11601,14 +11656,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12697,22 +12752,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12727,7 +12782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12811,7 +12866,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12836,7 +12891,7 @@
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
         <v>225</v>
       </c>
@@ -12846,7 +12901,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12910,7 +12965,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12919,7 +12974,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13073,7 +13128,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13094,23 +13149,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>212</v>
       </c>
@@ -13144,7 +13199,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13577,7 +13632,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13835,12 +13890,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="129" t="s">
         <v>239</v>
       </c>
@@ -13874,7 +13929,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14569,12 +14624,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14602,7 +14657,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14748,12 +14803,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14787,7 +14842,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15823,12 +15878,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15862,7 +15917,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15976,7 +16031,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15997,24 +16052,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16055,7 +16110,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>251</v>
@@ -16076,7 +16131,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>252</v>
       </c>
@@ -16149,12 +16204,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16175,16 +16230,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
         <v>239</v>
       </c>
@@ -16207,7 +16262,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16228,7 +16283,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16252,12 +16307,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16307,16 +16362,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16586,15 +16641,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16637,7 +16692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -17082,7 +17137,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17170,7 +17225,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -17382,15 +17437,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17409,12 +17464,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17434,7 +17489,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -17445,7 +17500,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17483,20 +17538,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17522,7 +17577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17548,7 +17603,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>268</v>
       </c>
@@ -17568,7 +17623,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>269</v>
       </c>
@@ -17588,7 +17643,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17614,7 +17669,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>269</v>
       </c>
@@ -17634,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17657,7 +17712,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
@@ -17677,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17703,7 +17758,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>269</v>
       </c>
@@ -17723,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17746,7 +17801,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>269</v>
       </c>
@@ -17766,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17792,7 +17847,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>269</v>
       </c>
@@ -17813,7 +17868,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17837,7 +17892,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>269</v>
       </c>
@@ -17858,7 +17913,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17885,7 +17940,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>268</v>
       </c>
@@ -17906,7 +17961,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17932,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>268</v>
       </c>
@@ -17952,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17978,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>268</v>
       </c>
@@ -17998,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18024,7 +18079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>268</v>
       </c>
@@ -18044,7 +18099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>269</v>
       </c>
@@ -18064,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18090,7 +18145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>268</v>
       </c>
@@ -18110,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>269</v>
       </c>
@@ -18130,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18156,7 +18211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>268</v>
       </c>
@@ -18176,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>269</v>
       </c>
@@ -18196,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18222,7 +18277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>268</v>
       </c>
@@ -18242,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>269</v>
       </c>
@@ -18262,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18288,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>268</v>
       </c>
@@ -18308,7 +18363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>269</v>
       </c>
@@ -18328,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18354,7 +18409,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>268</v>
       </c>
@@ -18374,7 +18429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>269</v>
       </c>
@@ -18394,7 +18449,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18417,7 +18472,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>268</v>
       </c>
@@ -18437,7 +18492,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>269</v>
       </c>
@@ -18457,7 +18512,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18483,7 +18538,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>268</v>
       </c>
@@ -18503,7 +18558,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18529,7 +18584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>268</v>
       </c>
@@ -18549,7 +18604,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18575,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>268</v>
       </c>
@@ -18613,16 +18668,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18644,7 +18699,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18668,7 +18723,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -18686,7 +18741,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18710,7 +18765,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -18729,7 +18784,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18753,7 +18808,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -18789,14 +18844,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18807,7 +18862,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -18906,7 +18961,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19112,7 +19167,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19224,17 +19279,17 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19292,23 +19347,23 @@
         <v>118</v>
       </c>
       <c r="C3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
         <v>0.38018616404726535</v>
       </c>
       <c r="D3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
         <v>0.38018616404726535</v>
       </c>
       <c r="E3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
         <v>0.37593298863929642</v>
       </c>
       <c r="F3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
         <v>0.19753998276868978</v>
       </c>
       <c r="G3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
         <v>0.17663275954168012</v>
       </c>
     </row>
@@ -19403,23 +19458,23 @@
         <v>121</v>
       </c>
       <c r="C9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="D9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="E9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
       <c r="F9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
       <c r="G9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
     </row>
@@ -19655,13 +19710,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19785,19 +19840,19 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19805,41 +19860,59 @@
         <v>145</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="28">
+        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <v>0.68868640444905249</v>
+      </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -19848,18 +19921,28 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28">
+        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <v>4.4702487716765882E-2</v>
+      </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -19867,19 +19950,29 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28">
+        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/10)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(24/60)</f>
+        <v>0.19703599999999999</v>
+      </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -19888,12 +19981,22 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28">
+        <f>C8</f>
+        <v>0.18837666072928053</v>
+      </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -19902,12 +20005,22 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="28">
+        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <v>0.18837666072928053</v>
+      </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -19916,15 +20029,25 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28">
+        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <v>0.50922873745377717</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -19933,12 +20056,22 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28">
+        <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
+        <v>0.80834605377276669</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -19947,15 +20080,25 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="28">
+        <f>(2.5*(1/60)+4.3*(11/60)+6.7*(48/60))/100</f>
+        <v>6.1900000000000004E-2</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -19963,13 +20106,25 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="28">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28">
+        <f>maternal_mortality/100</f>
+        <v>4.0099999999999997E-2</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -19978,6 +20133,13 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28">
+        <v>3.5999999999999997E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19996,15 +20158,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20021,7 +20183,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20035,7 +20197,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20049,7 +20211,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20063,7 +20225,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20077,7 +20239,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20091,7 +20253,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20100,7 +20262,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20116,7 +20278,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20128,7 +20290,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20140,7 +20302,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20152,7 +20314,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20164,7 +20326,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20173,7 +20335,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="80"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20189,7 +20351,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20203,7 +20365,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20217,7 +20379,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20231,7 +20393,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20245,7 +20407,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20272,15 +20434,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20294,7 +20456,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20306,7 +20468,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20335,17 +20497,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20635,7 +20797,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="16420" tabRatio="961" activeTab="5"/>
@@ -35,9 +35,6 @@
     <sheet name="Programs for children" sheetId="72" state="hidden" r:id="rId26"/>
     <sheet name="Programs for PW" sheetId="73" state="hidden" r:id="rId27"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId28"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$38</definedName>
@@ -3393,7 +3390,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,7 +3447,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3504,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,7 +3561,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3618,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,7 +3675,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3732,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3792,7 +3789,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3849,7 +3846,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3906,7 +3903,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3963,7 +3960,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4020,7 +4017,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4077,7 +4074,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4134,7 +4131,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4191,7 +4188,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4248,7 +4245,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4305,7 +4302,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,7 +4359,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4411,7 +4408,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4451,71 +4448,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Baseline year population inputs"/>
-      <sheetName val="Demographic projections"/>
-      <sheetName val="Causes of death"/>
-      <sheetName val="Nutritional status distribution"/>
-      <sheetName val="Breastfeeding distribution"/>
-      <sheetName val="Time trends"/>
-      <sheetName val="IYCF packages"/>
-      <sheetName val="Treatment of SAM"/>
-      <sheetName val="Programs cost and coverage"/>
-      <sheetName val="Program dependencies"/>
-      <sheetName val="Reference programs"/>
-      <sheetName val="Incidence of conditions"/>
-      <sheetName val="Programs target population"/>
-      <sheetName val="Cost curve options"/>
-      <sheetName val="Programs family planning"/>
-      <sheetName val="Programs impacted population"/>
-      <sheetName val="Program risk areas"/>
-      <sheetName val="Population risk areas"/>
-      <sheetName val="IYCF odds ratios"/>
-      <sheetName val="Birth outcome risks"/>
-      <sheetName val="Relative risks"/>
-      <sheetName val="Odds ratios"/>
-      <sheetName val="Programs birth outcomes"/>
-      <sheetName val="Programs anemia"/>
-      <sheetName val="Programs wasting"/>
-      <sheetName val="Programs for children"/>
-      <sheetName val="Programs for PW"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5325,7 +5257,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5334,7 +5266,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>208</v>
       </c>
@@ -5343,7 +5275,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5352,7 +5284,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5361,77 +5293,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5466,74 +5398,74 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -9447,7 +9379,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9464,7 +9396,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9481,7 +9413,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9498,7 +9430,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9515,7 +9447,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9534,7 +9466,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9553,7 +9485,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9572,7 +9504,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9591,7 +9523,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9608,7 +9540,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>207</v>
       </c>
@@ -9625,7 +9557,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9642,7 +9574,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9659,7 +9591,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9678,7 +9610,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>208</v>
       </c>
@@ -9697,7 +9629,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9718,7 +9650,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9735,7 +9667,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9754,7 +9686,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9773,7 +9705,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9792,7 +9724,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9811,7 +9743,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9832,7 +9764,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9851,7 +9783,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9868,7 +9800,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9885,7 +9817,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9902,7 +9834,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9921,7 +9853,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9938,7 +9870,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9957,7 +9889,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9974,7 +9906,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9993,7 +9925,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -10012,7 +9944,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10031,7 +9963,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10050,7 +9982,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10069,7 +10001,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10088,7 +10020,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10105,7 +10037,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10193,7 +10125,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10222,7 +10154,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10251,7 +10183,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10280,7 +10212,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10309,7 +10241,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10338,7 +10270,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10359,7 +10291,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10380,7 +10312,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10401,7 +10333,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10422,7 +10354,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10443,7 +10375,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10462,7 +10394,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10481,7 +10413,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10577,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10599,7 +10531,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10621,7 +10553,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10645,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10666,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10687,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10710,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10731,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10752,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10775,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10796,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10817,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10840,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10861,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10905,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
@@ -10938,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10959,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10980,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -11003,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -11024,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -11045,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -11068,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11089,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11110,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11133,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11154,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11175,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11198,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11219,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11263,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
@@ -11296,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11317,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11338,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11361,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11382,7 +11314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11403,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11426,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11447,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11468,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11491,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11512,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11533,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11556,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11577,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11624,12 +11556,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11639,6 +11565,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14629,7 +14561,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -17469,7 +17401,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17500,7 +17432,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17577,7 +17509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17603,7 +17535,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>268</v>
       </c>
@@ -17623,7 +17555,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>269</v>
       </c>
@@ -17643,7 +17575,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17669,7 +17601,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>269</v>
       </c>
@@ -17689,7 +17621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17712,7 +17644,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
@@ -17732,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17758,7 +17690,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>269</v>
       </c>
@@ -17778,7 +17710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17801,7 +17733,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>269</v>
       </c>
@@ -17821,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17847,7 +17779,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>269</v>
       </c>
@@ -17868,7 +17800,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17892,7 +17824,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>269</v>
       </c>
@@ -17913,7 +17845,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17940,7 +17872,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>268</v>
       </c>
@@ -17961,7 +17893,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17987,7 +17919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>268</v>
       </c>
@@ -18007,7 +17939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18033,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>268</v>
       </c>
@@ -18053,7 +17985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18079,7 +18011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>268</v>
       </c>
@@ -18099,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>269</v>
       </c>
@@ -18119,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18145,7 +18077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>268</v>
       </c>
@@ -18165,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>269</v>
       </c>
@@ -18185,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18211,7 +18143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>268</v>
       </c>
@@ -18231,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>269</v>
       </c>
@@ -18251,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18277,7 +18209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>268</v>
       </c>
@@ -18297,7 +18229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>269</v>
       </c>
@@ -18317,7 +18249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18343,7 +18275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>268</v>
       </c>
@@ -18363,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>269</v>
       </c>
@@ -18383,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18409,7 +18341,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>268</v>
       </c>
@@ -18429,7 +18361,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>269</v>
       </c>
@@ -18449,7 +18381,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18472,7 +18404,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>268</v>
       </c>
@@ -18492,7 +18424,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>269</v>
       </c>
@@ -18512,7 +18444,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18538,7 +18470,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>268</v>
       </c>
@@ -18558,7 +18490,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18584,7 +18516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>268</v>
       </c>
@@ -18604,7 +18536,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18630,7 +18562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>268</v>
       </c>
@@ -18699,7 +18631,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18723,7 +18655,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -18741,7 +18673,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18765,7 +18697,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -18784,7 +18716,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18808,7 +18740,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19843,7 +19775,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19970,8 +19902,8 @@
         <v>143</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/10)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(24/60)</f>
-        <v>0.19703599999999999</v>
+        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(24/60)</f>
+        <v>0.17953600000000003</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -19986,7 +19918,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28">
-        <v>0.18</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -19994,7 +19926,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="28">
-        <f>C8</f>
+        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D7" s="28"/>
@@ -20018,7 +19950,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="28">
-        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D8" s="28"/>
@@ -20053,7 +19985,9 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="28">
+        <v>0.53</v>
+      </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -20096,8 +20030,8 @@
         <v>148</v>
       </c>
       <c r="C13" s="28">
-        <f>(2.5*(1/60)+4.3*(11/60)+6.7*(48/60))/100</f>
-        <v>6.1900000000000004E-2</v>
+        <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -20122,8 +20056,8 @@
         <v>170</v>
       </c>
       <c r="C14" s="28">
-        <f>maternal_mortality/100</f>
-        <v>4.0099999999999997E-2</v>
+        <f>maternal_mortality/1000</f>
+        <v>4.0099999999999997E-3</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -20137,9 +20071,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="28">
-        <v>3.5999999999999997E-2</v>
-      </c>
+      <c r="P14" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20197,7 +20129,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20211,7 +20143,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20225,7 +20157,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20239,7 +20171,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20253,7 +20185,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20278,7 +20210,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20290,7 +20222,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20302,7 +20234,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20314,7 +20246,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20326,7 +20258,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20351,7 +20283,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20365,7 +20297,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20379,7 +20311,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20393,7 +20325,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20407,7 +20339,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -3390,7 +3390,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3447,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3504,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3561,7 +3561,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3618,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3675,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3732,7 +3732,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3789,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3846,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,7 +3903,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3960,7 +3960,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4017,7 +4017,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4074,7 +4074,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4131,7 +4131,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4188,7 +4188,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,7 +4245,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4302,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4359,7 +4359,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +4408,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11556,6 +11556,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11565,12 +11571,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -19775,7 +19775,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19902,8 +19902,8 @@
         <v>143</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(24/60)</f>
-        <v>0.17953600000000003</v>
+        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <v>0.22016400000000003</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.chadderdon\GitRepos\OptimaRepos\Nutrition\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="16420" tabRatio="961" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -90,12 +85,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -105,7 +95,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +257,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +315,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +358,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +392,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1271,12 +1261,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1584,7 +1574,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2302,7 +2292,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2338,8 +2328,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2349,7 +2339,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2359,16 +2349,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2401,7 +2391,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2416,7 +2406,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2446,7 +2436,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2465,28 +2455,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2611,7 +2601,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3376,9 +3366,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3403,7 +3390,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3447,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3504,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3561,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3618,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3675,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3732,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +3789,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3846,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +3903,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3973,7 +3960,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4017,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4074,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4131,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4188,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,7 +4245,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4302,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4359,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4421,7 +4408,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4777,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -11569,6 +11556,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11578,12 +11571,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -16304,7 +16291,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16532,10 +16519,10 @@
         <v>259</v>
       </c>
       <c r="C12" s="115">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="115">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="115">
         <v>0</v>
@@ -19224,8 +19211,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19267,23 +19254,23 @@
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.54471569980476653</v>
+        <v>0.35381383595273463</v>
       </c>
       <c r="D2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.54471569980476653</v>
+        <v>0.35381383595273463</v>
       </c>
       <c r="E2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.44982829694488635</v>
+        <v>0.2418969293934905</v>
       </c>
       <c r="F2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.24457139941017503</v>
+        <v>4.4626605907023831E-2</v>
       </c>
       <c r="G2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.23269074767298425</v>
+        <v>3.6196050479196717E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19292,24 +19279,24 @@
         <v>118</v>
       </c>
       <c r="C3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
-        <v>0.32228430019523346</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
+        <v>0.38018616404726535</v>
       </c>
       <c r="D3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
-        <v>0.32228430019523346</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
+        <v>0.38018616404726535</v>
       </c>
       <c r="E3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
-        <v>0.35908666207150708</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
+        <v>0.37593298863929642</v>
       </c>
       <c r="F3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
-        <v>0.37651189492768178</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
+        <v>0.19753998276868978</v>
       </c>
       <c r="G3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
-        <v>0.37372365733745416</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
+        <v>0.17663275954168012</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19318,19 +19305,19 @@
         <v>116</v>
       </c>
       <c r="C4" s="77">
-        <v>8.7000000000000008E-2</v>
+        <v>0.17400000000000002</v>
       </c>
       <c r="D4" s="77">
-        <v>8.7000000000000008E-2</v>
+        <v>0.17400000000000002</v>
       </c>
       <c r="E4" s="77">
-        <v>0.13443032786885245</v>
+        <v>0.2688606557377049</v>
       </c>
       <c r="F4" s="77">
-        <v>0.24673186710341602</v>
+        <v>0.49346373420683204</v>
       </c>
       <c r="G4" s="77">
-        <v>0.25929610299234518</v>
+        <v>0.51859220598469036</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19339,19 +19326,19 @@
         <v>119</v>
       </c>
       <c r="C5" s="77">
-        <v>4.5999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D5" s="77">
-        <v>4.5999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E5" s="77">
-        <v>5.6654713114754097E-2</v>
+        <v>0.11330942622950819</v>
       </c>
       <c r="F5" s="77">
-        <v>0.13218483855872717</v>
+        <v>0.26436967711745435</v>
       </c>
       <c r="G5" s="77">
-        <v>0.13428949199721643</v>
+        <v>0.26857898399443286</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19403,23 +19390,23 @@
         <v>121</v>
       </c>
       <c r="C9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="D9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="E9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
       <c r="F9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
       <c r="G9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
     </row>
@@ -19785,10 +19772,10 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19797,7 +19784,7 @@
     <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19805,41 +19792,59 @@
         <v>145</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="28">
+        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <v>0.68868640444905249</v>
+      </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -19848,18 +19853,28 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28">
+        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <v>4.4702487716765882E-2</v>
+      </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -19867,19 +19882,29 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28">
+        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <v>0.22016400000000003</v>
+      </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -19888,12 +19913,22 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28">
+        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <v>0.18837666072928053</v>
+      </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -19902,12 +19937,22 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="28">
+        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <v>0.18837666072928053</v>
+      </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -19916,29 +19961,51 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28">
+        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <v>0.50922873745377717</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="28">
+        <v>0.53</v>
+      </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28">
+        <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
+        <v>0.80834605377276669</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -19947,15 +20014,25 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="28">
+        <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
+        <v>6.1899999999999997E-2</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -19963,13 +20040,25 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="28">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28">
+        <f>maternal_mortality/1000</f>
+        <v>4.0099999999999997E-3</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -19978,6 +20067,11 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="16420" tabRatio="961" activeTab="5"/>
+    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="16416" tabRatio="961"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -85,7 +90,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -95,7 +100,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +262,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +320,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +363,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0">
+    <comment ref="A36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +397,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1261,12 +1266,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1574,7 +1579,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2292,9 +2297,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2328,8 +2333,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2339,7 +2344,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2349,16 +2354,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2391,7 +2396,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2406,7 +2411,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2436,7 +2441,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2455,28 +2460,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2601,8 +2606,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3366,6 +3375,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3390,7 +3402,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3459,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3516,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3561,7 +3573,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3630,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3687,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3732,7 +3744,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3801,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3858,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,7 +3915,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3960,7 +3972,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4017,7 +4029,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4074,7 +4086,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4131,7 +4143,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4188,7 +4200,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,7 +4257,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4314,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4359,7 +4371,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +4420,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4777,18 +4789,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4799,14 +4811,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4815,7 +4827,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4824,7 +4836,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4893,7 +4905,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5024,7 +5036,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5034,7 +5046,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5217,7 +5229,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5238,15 +5250,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5387,13 +5399,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5485,7 +5497,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5599,19 +5611,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5658,7 +5670,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6173,7 +6185,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6224,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6269,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6318,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>208</v>
@@ -6554,7 +6566,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6804,7 +6816,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7313,7 +7325,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7351,16 +7363,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7377,7 +7389,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7395,7 +7407,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7413,7 +7425,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7431,7 +7443,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7449,7 +7461,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7467,7 +7479,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7485,7 +7497,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7503,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7521,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7560,20 +7572,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7620,7 +7632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7667,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7711,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7755,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7799,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7843,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7887,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7931,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7975,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8019,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8063,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8107,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8151,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8195,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8239,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8255,7 +8267,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8302,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8347,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8391,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="92" t="s">
         <v>208</v>
       </c>
@@ -8435,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8479,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8523,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8567,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8611,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8627,7 +8639,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8675,7 +8687,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8719,7 +8731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>207</v>
@@ -8764,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8808,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8852,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8868,7 +8880,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8915,7 +8927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8959,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9003,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9047,7 +9059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9091,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9136,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9180,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9224,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9268,7 +9280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9329,22 +9341,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10075,22 +10087,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10449,15 +10461,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10483,11 +10495,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -10510,7 +10522,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="137"/>
+      <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
       </c>
@@ -10532,7 +10544,7 @@
       <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="137"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
       </c>
@@ -10554,7 +10566,7 @@
       <c r="J4" s="100"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -10578,7 +10590,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
       </c>
@@ -10599,7 +10611,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="137"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
       </c>
@@ -10620,7 +10632,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -10643,7 +10655,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="137"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
       </c>
@@ -10664,7 +10676,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="137"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
       </c>
@@ -10685,7 +10697,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -10708,7 +10720,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="137"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
       </c>
@@ -10729,7 +10741,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="137"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
       </c>
@@ -10750,7 +10762,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -10773,7 +10785,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="137"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
       </c>
@@ -10794,7 +10806,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="137"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
       </c>
@@ -10814,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10844,11 +10856,11 @@
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -10871,7 +10883,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="137"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
       </c>
@@ -10892,7 +10904,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="137"/>
+      <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
       </c>
@@ -10913,7 +10925,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -10936,7 +10948,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="137"/>
+      <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
       </c>
@@ -10957,7 +10969,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="137"/>
+      <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
       </c>
@@ -10978,7 +10990,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -11001,7 +11013,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="137"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
       </c>
@@ -11022,7 +11034,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="137"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
       </c>
@@ -11043,7 +11055,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -11066,7 +11078,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="137"/>
+      <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
       </c>
@@ -11087,7 +11099,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="137"/>
+      <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
       </c>
@@ -11108,7 +11120,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -11131,7 +11143,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="137"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
       </c>
@@ -11152,7 +11164,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
+      <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
       </c>
@@ -11172,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11202,11 +11214,11 @@
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -11229,7 +11241,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="137"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
       </c>
@@ -11250,7 +11262,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="137"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
       </c>
@@ -11271,7 +11283,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -11294,7 +11306,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="137"/>
+      <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
       </c>
@@ -11315,7 +11327,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="137"/>
+      <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
       </c>
@@ -11336,7 +11348,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -11359,7 +11371,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="137"/>
+      <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
       </c>
@@ -11380,7 +11392,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="137"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
       </c>
@@ -11401,7 +11413,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -11424,7 +11436,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="137"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
       </c>
@@ -11445,7 +11457,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="137"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
       </c>
@@ -11466,7 +11478,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="137" t="s">
+      <c r="B48" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -11489,7 +11501,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="137"/>
+      <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
       </c>
@@ -11510,7 +11522,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="137"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
       </c>
@@ -11530,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11556,12 +11568,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11571,6 +11577,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11588,14 +11600,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12684,22 +12696,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12714,7 +12726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12798,7 +12810,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12823,7 +12835,7 @@
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105" t="s">
         <v>225</v>
       </c>
@@ -12833,7 +12845,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12897,7 +12909,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12906,7 +12918,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13060,7 +13072,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13081,23 +13093,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="126" t="s">
         <v>212</v>
       </c>
@@ -13131,7 +13143,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13564,7 +13576,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13822,12 +13834,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
         <v>239</v>
       </c>
@@ -13861,7 +13873,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14556,12 +14568,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14589,7 +14601,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14735,12 +14747,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14774,7 +14786,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15810,12 +15822,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15849,7 +15861,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15963,7 +15975,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15984,24 +15996,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16042,7 +16054,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>251</v>
@@ -16063,7 +16075,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="s">
         <v>252</v>
       </c>
@@ -16136,12 +16148,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16162,16 +16174,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="133" t="s">
         <v>239</v>
       </c>
@@ -16194,7 +16206,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16215,7 +16227,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16239,12 +16251,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16294,16 +16306,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16573,15 +16585,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16624,7 +16636,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -17069,7 +17081,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17157,7 +17169,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -17369,15 +17381,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17396,7 +17408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
@@ -17421,7 +17433,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -17470,20 +17482,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18600,16 +18612,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18776,14 +18788,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18794,7 +18806,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -18893,7 +18905,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19099,7 +19111,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19211,17 +19223,17 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19254,23 +19266,23 @@
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.35381383595273463</v>
+        <v>0.5145316045606827</v>
       </c>
       <c r="D2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.35381383595273463</v>
+        <v>0.5145316045606827</v>
       </c>
       <c r="E2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.2418969293934905</v>
+        <v>0.36067520055247593</v>
       </c>
       <c r="F2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>4.4626605907023831E-2</v>
+        <v>0.197932081352032</v>
       </c>
       <c r="G2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>3.6196050479196717E-2</v>
+        <v>0.18417555450115231</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19279,24 +19291,24 @@
         <v>118</v>
       </c>
       <c r="C3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
-        <v>0.38018616404726535</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
+        <v>0.33546839543931734</v>
       </c>
       <c r="D3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
-        <v>0.38018616404726535</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
+        <v>0.33546839543931734</v>
       </c>
       <c r="E3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
-        <v>0.37593298863929642</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
+        <v>0.37932479944752406</v>
       </c>
       <c r="F3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
-        <v>0.19753998276868978</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
+        <v>0.36206791864796806</v>
       </c>
       <c r="G3" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
-        <v>0.17663275954168012</v>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
+        <v>0.35582444549884773</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19305,19 +19317,19 @@
         <v>116</v>
       </c>
       <c r="C4" s="77">
-        <v>0.17400000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="77">
-        <v>0.17400000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="77">
-        <v>0.2688606557377049</v>
+        <v>0.17</v>
       </c>
       <c r="F4" s="77">
-        <v>0.49346373420683204</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G4" s="77">
-        <v>0.51859220598469036</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19326,20 +19338,21 @@
         <v>119</v>
       </c>
       <c r="C5" s="77">
-        <v>9.1999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="77">
-        <v>9.1999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="77">
-        <v>0.11330942622950819</v>
+        <v>0.09</v>
       </c>
       <c r="F5" s="77">
-        <v>0.26436967711745435</v>
+        <v>0.15</v>
       </c>
       <c r="G5" s="77">
-        <v>0.26857898399443286</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="137"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
@@ -19390,23 +19403,23 @@
         <v>121</v>
       </c>
       <c r="C9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="D9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
       <c r="E9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
       <c r="F9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
       <c r="G9" s="76">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
     </row>
@@ -19624,7 +19637,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UgItZ1fUYYw4jxcRhHXwNHcUu0vhqIwiw+M/NqOF+Kwcup1Gz7SX/l9bwOv86KrlD68qT5UZTPKIb6eti+eUeQ==" saltValue="m4hom2mHEDeB1snGKNG4rA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19642,13 +19655,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19774,17 +19787,17 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19843,7 +19856,7 @@
       </c>
       <c r="C2" s="28">
         <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
-        <v>0.68868640444905249</v>
+        <v>0.40499999999999997</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -20090,15 +20103,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20115,7 +20128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20194,7 +20207,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20267,7 +20280,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="80"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20366,15 +20379,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20388,7 +20401,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20400,7 +20413,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20429,17 +20442,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20729,7 +20742,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF7806-C3E7-475C-B432-3CFC186AC943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="16416" tabRatio="961"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -90,17 +91,27 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -257,12 +268,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -315,12 +326,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -358,12 +369,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -392,12 +403,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -421,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2618,7 +2629,7 @@
   </cellXfs>
   <cellStyles count="728">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="727"/>
+    <cellStyle name="Comma 2" xfId="727" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3342,8 +3353,8 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -4783,24 +4794,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4811,14 +4822,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4827,7 +4838,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4836,7 +4847,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4905,7 +4916,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5036,7 +5047,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5046,7 +5057,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5229,7 +5240,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5240,7 +5251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5250,15 +5261,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5269,7 +5280,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5278,7 +5289,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>208</v>
       </c>
@@ -5287,7 +5298,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5296,7 +5307,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5305,77 +5316,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5389,7 +5400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5399,85 +5410,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5487,7 +5498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5497,7 +5508,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5601,29 +5612,29 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5670,7 +5681,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6185,7 +6196,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6236,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6281,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6330,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>208</v>
@@ -6566,7 +6577,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6816,7 +6827,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7311,7 +7322,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8AA2I9UZPCvjoGOxL0MMyqqXoHDNS7n4JtfrsQRho74JNJJKUigxuy0/aEjLs4m9INQV0OZqejhY0qqpkSRx4A==" saltValue="BKXFXqwFrNK8M/n7gCZbMQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <sortState ref="B14:O21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7320,12 +7331,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7353,7 +7364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7363,16 +7374,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7389,7 +7400,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7407,7 +7418,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7425,7 +7436,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7443,7 +7454,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7461,7 +7472,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7479,7 +7490,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7497,7 +7508,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7515,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7533,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7562,7 +7573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7572,20 +7583,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="55"/>
+    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7632,7 +7643,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7679,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7723,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7767,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7811,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7855,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7899,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7943,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7987,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8031,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8075,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8119,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8163,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8207,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8251,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8267,7 +8278,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8314,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8359,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8403,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
         <v>208</v>
       </c>
@@ -8447,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8491,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8535,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8579,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8623,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8639,7 +8650,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8687,7 +8698,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8731,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>207</v>
@@ -8776,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8820,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8864,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8880,7 +8891,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8927,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8971,7 +8982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9015,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9059,7 +9070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9103,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9148,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9192,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9236,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9280,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9331,7 +9342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -9341,22 +9352,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9391,7 +9402,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9408,7 +9419,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9425,7 +9436,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9442,7 +9453,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9459,7 +9470,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9478,7 +9489,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9497,7 +9508,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9516,7 +9527,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9535,7 +9546,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9552,7 +9563,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>207</v>
       </c>
@@ -9569,7 +9580,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9586,7 +9597,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9603,7 +9614,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9622,7 +9633,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>208</v>
       </c>
@@ -9641,7 +9652,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9662,7 +9673,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9679,7 +9690,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9698,7 +9709,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9717,7 +9728,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9736,7 +9747,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9755,7 +9766,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9776,7 +9787,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9795,7 +9806,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9812,7 +9823,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9829,7 +9840,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9846,7 +9857,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9865,7 +9876,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9882,7 +9893,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9901,7 +9912,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9918,7 +9929,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9937,7 +9948,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9956,7 +9967,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9975,7 +9986,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -9994,7 +10005,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10013,7 +10024,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10032,7 +10043,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10049,7 +10060,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10077,7 +10088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10087,22 +10098,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10137,7 +10148,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10166,7 +10177,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10195,7 +10206,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10224,7 +10235,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10253,7 +10264,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10282,7 +10293,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10303,7 +10314,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10324,7 +10335,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10345,7 +10356,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10366,7 +10377,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10387,7 +10398,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10406,7 +10417,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10425,7 +10436,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10451,7 +10462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10461,15 +10472,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -10495,7 +10506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -10521,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10543,7 +10554,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10565,7 +10576,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="138" t="s">
         <v>1</v>
       </c>
@@ -10589,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10610,7 +10621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10631,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
@@ -10654,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10675,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10696,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="138" t="s">
         <v>3</v>
       </c>
@@ -10719,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10740,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10761,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="138" t="s">
         <v>4</v>
       </c>
@@ -10784,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10805,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10826,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10849,14 +10860,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -10882,7 +10893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10903,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10924,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B22" s="138" t="s">
         <v>1</v>
       </c>
@@ -10947,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -10968,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -10989,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
@@ -11012,7 +11023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11033,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11054,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B28" s="138" t="s">
         <v>3</v>
       </c>
@@ -11077,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11098,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11119,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B31" s="138" t="s">
         <v>4</v>
       </c>
@@ -11142,7 +11153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11163,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11184,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11207,14 +11218,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
         <v>221</v>
       </c>
@@ -11240,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11261,7 +11272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11282,7 +11293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B39" s="138" t="s">
         <v>1</v>
       </c>
@@ -11305,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11326,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11347,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B42" s="138" t="s">
         <v>2</v>
       </c>
@@ -11370,7 +11381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11391,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11412,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B45" s="138" t="s">
         <v>3</v>
       </c>
@@ -11435,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11456,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11477,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B48" s="138" t="s">
         <v>4</v>
       </c>
@@ -11500,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11521,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11542,7 +11553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11568,6 +11579,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11577,12 +11594,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11590,7 +11601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -11600,14 +11611,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12686,7 +12697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12696,22 +12707,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12726,7 +12737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12810,7 +12821,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12835,7 +12846,7 @@
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
         <v>225</v>
       </c>
@@ -12845,7 +12856,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12909,7 +12920,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12918,7 +12929,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13072,7 +13083,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13083,7 +13094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -13093,23 +13104,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>212</v>
       </c>
@@ -13143,7 +13154,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13576,7 +13587,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13834,12 +13845,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="129" t="s">
         <v>239</v>
       </c>
@@ -13873,7 +13884,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14568,12 +14579,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14601,7 +14612,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14747,12 +14758,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14786,7 +14797,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15822,12 +15833,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15861,7 +15872,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15975,7 +15986,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15986,7 +15997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -15996,24 +16007,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16054,7 +16065,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>251</v>
@@ -16075,7 +16086,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>252</v>
       </c>
@@ -16148,12 +16159,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16174,16 +16185,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
         <v>239</v>
       </c>
@@ -16206,7 +16217,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16227,7 +16238,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16251,12 +16262,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16296,26 +16307,26 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16379,10 +16390,10 @@
         <v>259</v>
       </c>
       <c r="C4" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E4" s="115">
         <v>0</v>
@@ -16417,10 +16428,10 @@
         <v>259</v>
       </c>
       <c r="C6" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D6" s="115">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E6" s="115">
         <v>0</v>
@@ -16575,25 +16586,25 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16636,7 +16647,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -17081,7 +17092,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17169,7 +17180,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -17318,37 +17329,37 @@
         <v>1</v>
       </c>
       <c r="E20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="F20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="G20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="L20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O20" s="115">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -17371,25 +17382,25 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17408,12 +17419,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17421,19 +17432,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="115">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="115">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="115">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="115">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -17444,7 +17455,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17452,16 +17463,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="115">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="115">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F5" s="115">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="G5" s="115">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -17472,30 +17483,30 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A2" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17521,7 +17532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17547,7 +17558,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>268</v>
       </c>
@@ -17558,16 +17569,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="115">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
       <c r="G3" s="115">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
       <c r="H3" s="115">
-        <v>0.53134328358208949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>269</v>
       </c>
@@ -17578,16 +17589,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="115">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
       <c r="G4" s="115">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="115">
-        <v>0.38507462686567184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17613,7 +17624,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>269</v>
       </c>
@@ -17633,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17656,7 +17667,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
@@ -17676,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17702,7 +17713,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>269</v>
       </c>
@@ -17722,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17745,7 +17756,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>269</v>
       </c>
@@ -17765,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17782,16 +17793,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H13" s="115">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>269</v>
       </c>
@@ -17802,17 +17813,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="115">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="G14" s="115">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="H14" s="115">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17826,17 +17837,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="115">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>269</v>
       </c>
@@ -17847,17 +17858,17 @@
         <v>0</v>
       </c>
       <c r="F16" s="115">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="115">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="H16" s="115">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17884,12 +17895,12 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D18" s="115">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E18" s="115">
         <v>0</v>
@@ -17905,7 +17916,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17931,12 +17942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D20" s="115">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E20" s="115">
         <v>0</v>
@@ -17951,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17977,12 +17988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D22" s="115">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E22" s="115">
         <v>0</v>
@@ -17997,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18023,7 +18034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>268</v>
       </c>
@@ -18043,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>269</v>
       </c>
@@ -18063,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18089,7 +18100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>268</v>
       </c>
@@ -18109,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>269</v>
       </c>
@@ -18129,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18155,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>268</v>
       </c>
@@ -18175,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>269</v>
       </c>
@@ -18195,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18221,7 +18232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>268</v>
       </c>
@@ -18241,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>269</v>
       </c>
@@ -18261,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18287,7 +18298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>268</v>
       </c>
@@ -18307,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>269</v>
       </c>
@@ -18327,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18353,7 +18364,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>268</v>
       </c>
@@ -18373,7 +18384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>269</v>
       </c>
@@ -18393,7 +18404,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18416,47 +18427,47 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D42" s="115">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="115">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F42" s="115">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="115">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="115">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>269</v>
       </c>
       <c r="D43" s="115">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="E43" s="115">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="F43" s="115">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="G43" s="115">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="H43" s="115">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18482,27 +18493,27 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D45" s="115">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="E45" s="115">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F45" s="115">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="G45" s="115">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="H45" s="115">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18528,27 +18539,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D47" s="115">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="E47" s="115">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="F47" s="115">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="G47" s="115">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="H47" s="115">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18562,7 +18573,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E48" s="115">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F48" s="115">
         <v>0</v>
@@ -18574,15 +18585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>268</v>
       </c>
       <c r="D49" s="115">
-        <v>0.51</v>
+        <v>0.88</v>
       </c>
       <c r="E49" s="115">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F49" s="115">
         <v>0</v>
@@ -18602,26 +18613,26 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18643,7 +18654,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18667,7 +18678,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -18685,7 +18696,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18709,7 +18720,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -18728,7 +18739,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18752,22 +18763,22 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
       </c>
       <c r="D7" s="115">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E7" s="115">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="115">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="G7" s="115">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H7" s="136"/>
     </row>
@@ -18778,7 +18789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -18788,14 +18799,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18806,7 +18817,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -18905,7 +18916,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19111,7 +19122,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19217,7 +19228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19227,13 +19238,13 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19645,7 +19656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19655,13 +19666,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19781,7 +19792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -19791,13 +19802,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19847,7 +19858,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19874,10 +19885,10 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19904,10 +19915,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19934,7 +19945,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19958,7 +19969,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -19982,7 +19993,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20011,7 +20022,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20035,7 +20046,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20064,7 +20075,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20093,7 +20104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20103,15 +20114,15 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20128,7 +20139,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20142,7 +20153,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20156,7 +20167,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20170,7 +20181,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20184,7 +20195,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20198,7 +20209,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20207,7 +20218,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20223,7 +20234,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20235,7 +20246,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20247,7 +20258,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20259,7 +20270,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20271,7 +20282,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20280,7 +20291,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="80"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20296,7 +20307,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20310,7 +20321,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20324,7 +20335,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20338,7 +20349,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20352,7 +20363,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20369,7 +20380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20379,15 +20390,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20401,7 +20412,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20413,7 +20424,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20432,7 +20443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -20442,17 +20453,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20742,7 +20753,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -21105,7 +21116,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zGqGWUHks9r73YYvhtsA/6n2sxkq6NyOLMnszdwkuYHRGc3RAKyH9yLxkOwoypM6IGMaCGHxxq0vP7rXnZY93w==" saltValue="sA5n05NYbI4nfIN6wumz0A==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <sortState ref="A2:D38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21114,7 +21125,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9EC21-1B9E-4F2A-A366-B22DA600CC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362D4C81-5E3A-4DAA-898D-0080FD5A0AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
-    <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
+    <sheet name="Programs impacted population" sheetId="62" r:id="rId16"/>
     <sheet name="Program risk areas" sheetId="63" r:id="rId17"/>
     <sheet name="Population risk areas" sheetId="64" state="hidden" r:id="rId18"/>
     <sheet name="IYCF odds ratios" sheetId="65" state="hidden" r:id="rId19"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="270">
   <si>
     <t>year</t>
   </si>
@@ -2648,15 +2648,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5312,7 +5312,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>187</v>
       </c>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="C2" s="78"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>208</v>
       </c>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C3" s="78"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>58</v>
       </c>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="C4" s="78"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>137</v>
       </c>
@@ -5348,77 +5348,77 @@
       </c>
       <c r="C5" s="78"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
       <c r="B10" s="83"/>
       <c r="C10" s="83"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="84"/>
       <c r="B11" s="83"/>
       <c r="C11" s="83"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="84"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="84"/>
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="84"/>
       <c r="B18" s="83"/>
       <c r="C18" s="83"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
       <c r="C19" s="83"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
       <c r="C20" s="83"/>
@@ -5453,74 +5453,74 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5651,7 +5651,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="C10" s="85">
         <v>0</v>
@@ -7401,7 +7401,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w0Bxihd6J/weql6Phqk6S9/qrXvqWZ4a5y3YpmKACf5GM4dfICpmTrs1srgLFetCu5O81h6jYFRILMMk9VH9Ow==" saltValue="z+F0dItCpyRiY0ZZ8MfzzQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uzFiVlZAFzOqZjKQI0Mm+cttFWZQLq/o0gfs9tyiNeLf1Tcvb6JNmIjcDFwiFL9i1taMiJ9jgbSaXLYDkoXwuw==" saltValue="v687blzXd7cIUYGRLRo45w==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -7657,10 +7657,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8212,13 +8212,13 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="C13" s="88">
         <v>0</v>
       </c>
       <c r="D13" s="88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="88">
         <v>1</v>
@@ -8256,13 +8256,13 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C14" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="88">
         <v>1</v>
@@ -8300,159 +8300,159 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="88">
+        <v>1</v>
+      </c>
+      <c r="D15" s="88">
+        <v>1</v>
+      </c>
+      <c r="E15" s="88">
+        <v>1</v>
+      </c>
+      <c r="F15" s="88">
+        <v>1</v>
+      </c>
+      <c r="G15" s="88">
+        <v>1</v>
+      </c>
+      <c r="H15" s="88">
+        <v>0</v>
+      </c>
+      <c r="I15" s="88">
+        <v>0</v>
+      </c>
+      <c r="J15" s="88">
+        <v>0</v>
+      </c>
+      <c r="K15" s="88">
+        <v>0</v>
+      </c>
+      <c r="L15" s="88">
+        <v>0</v>
+      </c>
+      <c r="M15" s="88">
+        <v>0</v>
+      </c>
+      <c r="N15" s="88">
+        <v>0</v>
+      </c>
+      <c r="O15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="88">
-        <v>0</v>
-      </c>
-      <c r="D15" s="88">
-        <v>0</v>
-      </c>
-      <c r="E15" s="88">
-        <v>1</v>
-      </c>
-      <c r="F15" s="88">
-        <v>1</v>
-      </c>
-      <c r="G15" s="88">
-        <v>1</v>
-      </c>
-      <c r="H15" s="88">
-        <v>0</v>
-      </c>
-      <c r="I15" s="88">
-        <v>0</v>
-      </c>
-      <c r="J15" s="88">
-        <v>0</v>
-      </c>
-      <c r="K15" s="88">
-        <v>0</v>
-      </c>
-      <c r="L15" s="88">
-        <v>0</v>
-      </c>
-      <c r="M15" s="88">
-        <v>0</v>
-      </c>
-      <c r="N15" s="88">
-        <v>0</v>
-      </c>
-      <c r="O15" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="52"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
+      <c r="C16" s="88">
+        <v>0</v>
+      </c>
+      <c r="D16" s="88">
+        <v>0</v>
+      </c>
+      <c r="E16" s="88">
+        <v>1</v>
+      </c>
+      <c r="F16" s="88">
+        <v>1</v>
+      </c>
+      <c r="G16" s="88">
+        <v>1</v>
+      </c>
+      <c r="H16" s="88">
+        <v>0</v>
+      </c>
+      <c r="I16" s="88">
+        <v>0</v>
+      </c>
+      <c r="J16" s="88">
+        <v>0</v>
+      </c>
+      <c r="K16" s="88">
+        <v>0</v>
+      </c>
+      <c r="L16" s="88">
+        <v>0</v>
+      </c>
+      <c r="M16" s="88">
+        <v>0</v>
+      </c>
+      <c r="N16" s="88">
+        <v>0</v>
+      </c>
+      <c r="O16" s="88">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B18" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="88">
-        <v>0</v>
-      </c>
-      <c r="D17" s="88">
-        <v>0</v>
-      </c>
-      <c r="E17" s="88">
-        <v>0</v>
-      </c>
-      <c r="F17" s="88">
-        <v>0</v>
-      </c>
-      <c r="G17" s="88">
-        <v>0</v>
-      </c>
-      <c r="H17" s="88">
-        <v>1</v>
-      </c>
-      <c r="I17" s="88">
-        <v>1</v>
-      </c>
-      <c r="J17" s="88">
-        <v>1</v>
-      </c>
-      <c r="K17" s="88">
-        <v>1</v>
-      </c>
-      <c r="L17" s="88">
-        <v>0</v>
-      </c>
-      <c r="M17" s="88">
-        <v>0</v>
-      </c>
-      <c r="N17" s="88">
-        <v>0</v>
-      </c>
-      <c r="O17" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="52" t="s">
+      <c r="C18" s="88">
+        <v>0</v>
+      </c>
+      <c r="D18" s="88">
+        <v>0</v>
+      </c>
+      <c r="E18" s="88">
+        <v>0</v>
+      </c>
+      <c r="F18" s="88">
+        <v>0</v>
+      </c>
+      <c r="G18" s="88">
+        <v>0</v>
+      </c>
+      <c r="H18" s="88">
+        <v>1</v>
+      </c>
+      <c r="I18" s="88">
+        <v>1</v>
+      </c>
+      <c r="J18" s="88">
+        <v>1</v>
+      </c>
+      <c r="K18" s="88">
+        <v>1</v>
+      </c>
+      <c r="L18" s="88">
+        <v>0</v>
+      </c>
+      <c r="M18" s="88">
+        <v>0</v>
+      </c>
+      <c r="N18" s="88">
+        <v>0</v>
+      </c>
+      <c r="O18" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="56"/>
+      <c r="B19" s="52" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="88">
-        <v>0</v>
-      </c>
-      <c r="D18" s="88">
-        <v>0</v>
-      </c>
-      <c r="E18" s="88">
-        <v>0</v>
-      </c>
-      <c r="F18" s="88">
-        <v>0</v>
-      </c>
-      <c r="G18" s="88">
-        <v>0</v>
-      </c>
-      <c r="H18" s="88">
-        <v>1</v>
-      </c>
-      <c r="I18" s="88">
-        <v>1</v>
-      </c>
-      <c r="J18" s="88">
-        <v>1</v>
-      </c>
-      <c r="K18" s="88">
-        <v>1</v>
-      </c>
-      <c r="L18" s="88">
-        <v>0</v>
-      </c>
-      <c r="M18" s="88">
-        <v>0</v>
-      </c>
-      <c r="N18" s="88">
-        <v>0</v>
-      </c>
-      <c r="O18" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="90" t="s">
-        <v>187</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -8496,95 +8496,95 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="88">
+        <v>0</v>
+      </c>
+      <c r="D20" s="88">
+        <v>0</v>
+      </c>
+      <c r="E20" s="88">
+        <v>0</v>
+      </c>
+      <c r="F20" s="88">
+        <v>0</v>
+      </c>
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+      <c r="H20" s="88">
+        <v>1</v>
+      </c>
+      <c r="I20" s="88">
+        <v>1</v>
+      </c>
+      <c r="J20" s="88">
+        <v>1</v>
+      </c>
+      <c r="K20" s="88">
+        <v>1</v>
+      </c>
+      <c r="L20" s="88">
+        <v>0</v>
+      </c>
+      <c r="M20" s="88">
+        <v>0</v>
+      </c>
+      <c r="N20" s="88">
+        <v>0</v>
+      </c>
+      <c r="O20" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="88">
-        <v>0</v>
-      </c>
-      <c r="D20" s="88">
-        <v>0</v>
-      </c>
-      <c r="E20" s="88">
-        <v>0</v>
-      </c>
-      <c r="F20" s="88">
-        <v>0</v>
-      </c>
-      <c r="G20" s="88">
-        <v>0</v>
-      </c>
-      <c r="H20" s="88">
-        <v>1</v>
-      </c>
-      <c r="I20" s="88">
-        <v>1</v>
-      </c>
-      <c r="J20" s="88">
-        <v>1</v>
-      </c>
-      <c r="K20" s="88">
-        <v>1</v>
-      </c>
-      <c r="L20" s="88">
-        <v>0</v>
-      </c>
-      <c r="M20" s="88">
-        <v>0</v>
-      </c>
-      <c r="N20" s="88">
-        <v>0</v>
-      </c>
-      <c r="O20" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="91" t="s">
+      <c r="C21" s="88">
+        <v>0</v>
+      </c>
+      <c r="D21" s="88">
+        <v>0</v>
+      </c>
+      <c r="E21" s="88">
+        <v>0</v>
+      </c>
+      <c r="F21" s="88">
+        <v>0</v>
+      </c>
+      <c r="G21" s="88">
+        <v>0</v>
+      </c>
+      <c r="H21" s="88">
+        <v>1</v>
+      </c>
+      <c r="I21" s="88">
+        <v>1</v>
+      </c>
+      <c r="J21" s="88">
+        <v>1</v>
+      </c>
+      <c r="K21" s="88">
+        <v>1</v>
+      </c>
+      <c r="L21" s="88">
+        <v>0</v>
+      </c>
+      <c r="M21" s="88">
+        <v>0</v>
+      </c>
+      <c r="N21" s="88">
+        <v>0</v>
+      </c>
+      <c r="O21" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="91" t="s">
         <v>57</v>
-      </c>
-      <c r="C21" s="88">
-        <v>0</v>
-      </c>
-      <c r="D21" s="88">
-        <v>0</v>
-      </c>
-      <c r="E21" s="88">
-        <v>0</v>
-      </c>
-      <c r="F21" s="88">
-        <v>0</v>
-      </c>
-      <c r="G21" s="88">
-        <v>0</v>
-      </c>
-      <c r="H21" s="88">
-        <v>1</v>
-      </c>
-      <c r="I21" s="88">
-        <v>1</v>
-      </c>
-      <c r="J21" s="88">
-        <v>1</v>
-      </c>
-      <c r="K21" s="88">
-        <v>1</v>
-      </c>
-      <c r="L21" s="88">
-        <v>0</v>
-      </c>
-      <c r="M21" s="88">
-        <v>0</v>
-      </c>
-      <c r="N21" s="88">
-        <v>0</v>
-      </c>
-      <c r="O21" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="52" t="s">
-        <v>88</v>
       </c>
       <c r="C22" s="88">
         <v>0</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -8672,204 +8672,204 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="88">
+        <v>0</v>
+      </c>
+      <c r="D24" s="88">
+        <v>0</v>
+      </c>
+      <c r="E24" s="88">
+        <v>0</v>
+      </c>
+      <c r="F24" s="88">
+        <v>0</v>
+      </c>
+      <c r="G24" s="88">
+        <v>0</v>
+      </c>
+      <c r="H24" s="88">
+        <v>1</v>
+      </c>
+      <c r="I24" s="88">
+        <v>1</v>
+      </c>
+      <c r="J24" s="88">
+        <v>1</v>
+      </c>
+      <c r="K24" s="88">
+        <v>1</v>
+      </c>
+      <c r="L24" s="88">
+        <v>0</v>
+      </c>
+      <c r="M24" s="88">
+        <v>0</v>
+      </c>
+      <c r="N24" s="88">
+        <v>0</v>
+      </c>
+      <c r="O24" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="88">
-        <v>0</v>
-      </c>
-      <c r="D24" s="88">
-        <v>0</v>
-      </c>
-      <c r="E24" s="88">
-        <v>0</v>
-      </c>
-      <c r="F24" s="88">
-        <v>0</v>
-      </c>
-      <c r="G24" s="88">
-        <v>0</v>
-      </c>
-      <c r="H24" s="88">
-        <v>1</v>
-      </c>
-      <c r="I24" s="88">
-        <v>1</v>
-      </c>
-      <c r="J24" s="88">
-        <v>1</v>
-      </c>
-      <c r="K24" s="88">
-        <v>1</v>
-      </c>
-      <c r="L24" s="88">
-        <v>0</v>
-      </c>
-      <c r="M24" s="88">
-        <v>0</v>
-      </c>
-      <c r="N24" s="88">
-        <v>0</v>
-      </c>
-      <c r="O24" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="52"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-    </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56" t="s">
+      <c r="C25" s="88">
+        <v>0</v>
+      </c>
+      <c r="D25" s="88">
+        <v>0</v>
+      </c>
+      <c r="E25" s="88">
+        <v>0</v>
+      </c>
+      <c r="F25" s="88">
+        <v>0</v>
+      </c>
+      <c r="G25" s="88">
+        <v>0</v>
+      </c>
+      <c r="H25" s="88">
+        <v>1</v>
+      </c>
+      <c r="I25" s="88">
+        <v>1</v>
+      </c>
+      <c r="J25" s="88">
+        <v>1</v>
+      </c>
+      <c r="K25" s="88">
+        <v>1</v>
+      </c>
+      <c r="L25" s="88">
+        <v>0</v>
+      </c>
+      <c r="M25" s="88">
+        <v>0</v>
+      </c>
+      <c r="N25" s="88">
+        <v>0</v>
+      </c>
+      <c r="O25" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="52"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+    </row>
+    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B27" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="88">
-        <v>0</v>
-      </c>
-      <c r="D26" s="88">
-        <v>0</v>
-      </c>
-      <c r="E26" s="88">
-        <v>0</v>
-      </c>
-      <c r="F26" s="88">
-        <v>0</v>
-      </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
-      <c r="H26" s="88">
-        <v>0</v>
-      </c>
-      <c r="I26" s="88">
-        <v>0</v>
-      </c>
-      <c r="J26" s="88">
-        <v>0</v>
-      </c>
-      <c r="K26" s="88">
-        <v>0</v>
-      </c>
-      <c r="L26" s="88">
-        <v>1</v>
-      </c>
-      <c r="M26" s="88">
-        <v>0</v>
-      </c>
-      <c r="N26" s="88">
-        <v>0</v>
-      </c>
-      <c r="O26" s="88">
-        <v>0</v>
-      </c>
-      <c r="P26" s="92"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="59" t="s">
+      <c r="C27" s="88">
+        <v>0</v>
+      </c>
+      <c r="D27" s="88">
+        <v>0</v>
+      </c>
+      <c r="E27" s="88">
+        <v>0</v>
+      </c>
+      <c r="F27" s="88">
+        <v>0</v>
+      </c>
+      <c r="G27" s="88">
+        <v>0</v>
+      </c>
+      <c r="H27" s="88">
+        <v>0</v>
+      </c>
+      <c r="I27" s="88">
+        <v>0</v>
+      </c>
+      <c r="J27" s="88">
+        <v>0</v>
+      </c>
+      <c r="K27" s="88">
+        <v>0</v>
+      </c>
+      <c r="L27" s="88">
+        <v>1</v>
+      </c>
+      <c r="M27" s="88">
+        <v>0</v>
+      </c>
+      <c r="N27" s="88">
+        <v>0</v>
+      </c>
+      <c r="O27" s="88">
+        <v>0</v>
+      </c>
+      <c r="P27" s="92"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="88">
-        <v>0</v>
-      </c>
-      <c r="D27" s="88">
-        <v>0</v>
-      </c>
-      <c r="E27" s="88">
-        <v>0</v>
-      </c>
-      <c r="F27" s="88">
-        <v>0</v>
-      </c>
-      <c r="G27" s="88">
-        <v>0</v>
-      </c>
-      <c r="H27" s="88">
-        <v>0</v>
-      </c>
-      <c r="I27" s="88">
-        <v>0</v>
-      </c>
-      <c r="J27" s="88">
-        <v>0</v>
-      </c>
-      <c r="K27" s="88">
-        <v>0</v>
-      </c>
-      <c r="L27" s="88">
-        <v>1</v>
-      </c>
-      <c r="M27" s="88">
-        <v>1</v>
-      </c>
-      <c r="N27" s="88">
-        <v>1</v>
-      </c>
-      <c r="O27" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59" t="s">
+      <c r="C28" s="88">
+        <v>0</v>
+      </c>
+      <c r="D28" s="88">
+        <v>0</v>
+      </c>
+      <c r="E28" s="88">
+        <v>0</v>
+      </c>
+      <c r="F28" s="88">
+        <v>0</v>
+      </c>
+      <c r="G28" s="88">
+        <v>0</v>
+      </c>
+      <c r="H28" s="88">
+        <v>0</v>
+      </c>
+      <c r="I28" s="88">
+        <v>0</v>
+      </c>
+      <c r="J28" s="88">
+        <v>0</v>
+      </c>
+      <c r="K28" s="88">
+        <v>0</v>
+      </c>
+      <c r="L28" s="88">
+        <v>1</v>
+      </c>
+      <c r="M28" s="88">
+        <v>1</v>
+      </c>
+      <c r="N28" s="88">
+        <v>1</v>
+      </c>
+      <c r="O28" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="56"/>
+      <c r="B29" s="59" t="s">
         <v>207</v>
-      </c>
-      <c r="C28" s="88">
-        <v>0</v>
-      </c>
-      <c r="D28" s="88">
-        <v>0</v>
-      </c>
-      <c r="E28" s="88">
-        <v>0</v>
-      </c>
-      <c r="F28" s="88">
-        <v>0</v>
-      </c>
-      <c r="G28" s="88">
-        <v>0</v>
-      </c>
-      <c r="H28" s="88">
-        <v>0</v>
-      </c>
-      <c r="I28" s="88">
-        <v>0</v>
-      </c>
-      <c r="J28" s="88">
-        <v>0</v>
-      </c>
-      <c r="K28" s="88">
-        <v>0</v>
-      </c>
-      <c r="L28" s="88">
-        <v>1</v>
-      </c>
-      <c r="M28" s="88">
-        <v>1</v>
-      </c>
-      <c r="N28" s="88">
-        <v>1</v>
-      </c>
-      <c r="O28" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="59" t="s">
-        <v>189</v>
       </c>
       <c r="C29" s="88">
         <v>0</v>
@@ -8913,114 +8913,114 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="88">
+        <v>0</v>
+      </c>
+      <c r="D30" s="88">
+        <v>0</v>
+      </c>
+      <c r="E30" s="88">
+        <v>0</v>
+      </c>
+      <c r="F30" s="88">
+        <v>0</v>
+      </c>
+      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+      <c r="H30" s="88">
+        <v>0</v>
+      </c>
+      <c r="I30" s="88">
+        <v>0</v>
+      </c>
+      <c r="J30" s="88">
+        <v>0</v>
+      </c>
+      <c r="K30" s="88">
+        <v>0</v>
+      </c>
+      <c r="L30" s="88">
+        <v>1</v>
+      </c>
+      <c r="M30" s="88">
+        <v>1</v>
+      </c>
+      <c r="N30" s="88">
+        <v>1</v>
+      </c>
+      <c r="O30" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="88">
-        <v>0</v>
-      </c>
-      <c r="D30" s="88">
-        <v>0</v>
-      </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="88">
-        <v>0</v>
-      </c>
-      <c r="G30" s="88">
-        <v>0</v>
-      </c>
-      <c r="H30" s="88">
-        <v>0</v>
-      </c>
-      <c r="I30" s="88">
-        <v>0</v>
-      </c>
-      <c r="J30" s="88">
-        <v>0</v>
-      </c>
-      <c r="K30" s="88">
-        <v>0</v>
-      </c>
-      <c r="L30" s="88">
-        <v>1</v>
-      </c>
-      <c r="M30" s="88">
-        <v>0</v>
-      </c>
-      <c r="N30" s="88">
-        <v>0</v>
-      </c>
-      <c r="O30" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="52"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
+      <c r="C31" s="88">
+        <v>0</v>
+      </c>
+      <c r="D31" s="88">
+        <v>0</v>
+      </c>
+      <c r="E31" s="88">
+        <v>0</v>
+      </c>
+      <c r="F31" s="88">
+        <v>0</v>
+      </c>
+      <c r="G31" s="88">
+        <v>0</v>
+      </c>
+      <c r="H31" s="88">
+        <v>0</v>
+      </c>
+      <c r="I31" s="88">
+        <v>0</v>
+      </c>
+      <c r="J31" s="88">
+        <v>0</v>
+      </c>
+      <c r="K31" s="88">
+        <v>0</v>
+      </c>
+      <c r="L31" s="88">
+        <v>1</v>
+      </c>
+      <c r="M31" s="88">
+        <v>0</v>
+      </c>
+      <c r="N31" s="88">
+        <v>0</v>
+      </c>
+      <c r="O31" s="88">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B33" s="52" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="88">
-        <v>1</v>
-      </c>
-      <c r="D32" s="88">
-        <v>0</v>
-      </c>
-      <c r="E32" s="88">
-        <v>1</v>
-      </c>
-      <c r="F32" s="88">
-        <v>1</v>
-      </c>
-      <c r="G32" s="88">
-        <v>1</v>
-      </c>
-      <c r="H32" s="88">
-        <v>1</v>
-      </c>
-      <c r="I32" s="88">
-        <v>1</v>
-      </c>
-      <c r="J32" s="88">
-        <v>1</v>
-      </c>
-      <c r="K32" s="88">
-        <v>1</v>
-      </c>
-      <c r="L32" s="88">
-        <v>1</v>
-      </c>
-      <c r="M32" s="88">
-        <v>1</v>
-      </c>
-      <c r="N32" s="88">
-        <v>1</v>
-      </c>
-      <c r="O32" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="52" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="88">
         <v>1</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="88">
         <v>1</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C35" s="88">
         <v>1</v>
@@ -9152,96 +9152,96 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="88">
+        <v>1</v>
+      </c>
+      <c r="D36" s="88">
+        <v>0</v>
+      </c>
+      <c r="E36" s="88">
+        <v>1</v>
+      </c>
+      <c r="F36" s="88">
+        <v>1</v>
+      </c>
+      <c r="G36" s="88">
+        <v>1</v>
+      </c>
+      <c r="H36" s="88">
+        <v>1</v>
+      </c>
+      <c r="I36" s="88">
+        <v>1</v>
+      </c>
+      <c r="J36" s="88">
+        <v>1</v>
+      </c>
+      <c r="K36" s="88">
+        <v>1</v>
+      </c>
+      <c r="L36" s="88">
+        <v>1</v>
+      </c>
+      <c r="M36" s="88">
+        <v>1</v>
+      </c>
+      <c r="N36" s="88">
+        <v>1</v>
+      </c>
+      <c r="O36" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="88">
-        <v>1</v>
-      </c>
-      <c r="D36" s="88">
-        <v>1</v>
-      </c>
-      <c r="E36" s="88">
-        <v>1</v>
-      </c>
-      <c r="F36" s="88">
-        <v>1</v>
-      </c>
-      <c r="G36" s="88">
-        <v>1</v>
-      </c>
-      <c r="H36" s="88">
-        <v>1</v>
-      </c>
-      <c r="I36" s="88">
-        <v>1</v>
-      </c>
-      <c r="J36" s="88">
-        <v>1</v>
-      </c>
-      <c r="K36" s="88">
-        <v>1</v>
-      </c>
-      <c r="L36" s="88">
-        <v>1</v>
-      </c>
-      <c r="M36" s="88">
-        <v>1</v>
-      </c>
-      <c r="N36" s="88">
-        <v>1</v>
-      </c>
-      <c r="O36" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="95"/>
-      <c r="B37" s="52" t="s">
+      <c r="C37" s="88">
+        <v>1</v>
+      </c>
+      <c r="D37" s="88">
+        <v>1</v>
+      </c>
+      <c r="E37" s="88">
+        <v>1</v>
+      </c>
+      <c r="F37" s="88">
+        <v>1</v>
+      </c>
+      <c r="G37" s="88">
+        <v>1</v>
+      </c>
+      <c r="H37" s="88">
+        <v>1</v>
+      </c>
+      <c r="I37" s="88">
+        <v>1</v>
+      </c>
+      <c r="J37" s="88">
+        <v>1</v>
+      </c>
+      <c r="K37" s="88">
+        <v>1</v>
+      </c>
+      <c r="L37" s="88">
+        <v>1</v>
+      </c>
+      <c r="M37" s="88">
+        <v>1</v>
+      </c>
+      <c r="N37" s="88">
+        <v>1</v>
+      </c>
+      <c r="O37" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="95"/>
+      <c r="B38" s="52" t="s">
         <v>83</v>
-      </c>
-      <c r="C37" s="88">
-        <v>1</v>
-      </c>
-      <c r="D37" s="88">
-        <v>1</v>
-      </c>
-      <c r="E37" s="88">
-        <v>1</v>
-      </c>
-      <c r="F37" s="88">
-        <v>1</v>
-      </c>
-      <c r="G37" s="88">
-        <v>1</v>
-      </c>
-      <c r="H37" s="88">
-        <v>1</v>
-      </c>
-      <c r="I37" s="88">
-        <v>1</v>
-      </c>
-      <c r="J37" s="88">
-        <v>1</v>
-      </c>
-      <c r="K37" s="88">
-        <v>1</v>
-      </c>
-      <c r="L37" s="88">
-        <v>1</v>
-      </c>
-      <c r="M37" s="88">
-        <v>1</v>
-      </c>
-      <c r="N37" s="88">
-        <v>1</v>
-      </c>
-      <c r="O37" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="52" t="s">
-        <v>82</v>
       </c>
       <c r="C38" s="88">
         <v>1</v>
@@ -9285,7 +9285,7 @@
     </row>
     <row r="39" spans="1:15" s="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="88">
         <v>1</v>
@@ -9329,94 +9329,138 @@
     </row>
     <row r="40" spans="1:15" s="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="88">
+        <v>1</v>
+      </c>
+      <c r="D40" s="88">
+        <v>1</v>
+      </c>
+      <c r="E40" s="88">
+        <v>1</v>
+      </c>
+      <c r="F40" s="88">
+        <v>1</v>
+      </c>
+      <c r="G40" s="88">
+        <v>1</v>
+      </c>
+      <c r="H40" s="88">
+        <v>1</v>
+      </c>
+      <c r="I40" s="88">
+        <v>1</v>
+      </c>
+      <c r="J40" s="88">
+        <v>1</v>
+      </c>
+      <c r="K40" s="88">
+        <v>1</v>
+      </c>
+      <c r="L40" s="88">
+        <v>1</v>
+      </c>
+      <c r="M40" s="88">
+        <v>1</v>
+      </c>
+      <c r="N40" s="88">
+        <v>1</v>
+      </c>
+      <c r="O40" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="88">
-        <v>1</v>
-      </c>
-      <c r="D40" s="88">
-        <v>1</v>
-      </c>
-      <c r="E40" s="88">
-        <v>1</v>
-      </c>
-      <c r="F40" s="88">
-        <v>1</v>
-      </c>
-      <c r="G40" s="88">
-        <v>1</v>
-      </c>
-      <c r="H40" s="88">
-        <v>1</v>
-      </c>
-      <c r="I40" s="88">
-        <v>1</v>
-      </c>
-      <c r="J40" s="88">
-        <v>1</v>
-      </c>
-      <c r="K40" s="88">
-        <v>1</v>
-      </c>
-      <c r="L40" s="88">
-        <v>1</v>
-      </c>
-      <c r="M40" s="88">
-        <v>1</v>
-      </c>
-      <c r="N40" s="88">
-        <v>1</v>
-      </c>
-      <c r="O40" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="52" t="s">
+      <c r="C41" s="88">
+        <v>1</v>
+      </c>
+      <c r="D41" s="88">
+        <v>1</v>
+      </c>
+      <c r="E41" s="88">
+        <v>1</v>
+      </c>
+      <c r="F41" s="88">
+        <v>1</v>
+      </c>
+      <c r="G41" s="88">
+        <v>1</v>
+      </c>
+      <c r="H41" s="88">
+        <v>1</v>
+      </c>
+      <c r="I41" s="88">
+        <v>1</v>
+      </c>
+      <c r="J41" s="88">
+        <v>1</v>
+      </c>
+      <c r="K41" s="88">
+        <v>1</v>
+      </c>
+      <c r="L41" s="88">
+        <v>1</v>
+      </c>
+      <c r="M41" s="88">
+        <v>1</v>
+      </c>
+      <c r="N41" s="88">
+        <v>1</v>
+      </c>
+      <c r="O41" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="88">
-        <v>1</v>
-      </c>
-      <c r="D41" s="88">
-        <v>1</v>
-      </c>
-      <c r="E41" s="88">
-        <v>1</v>
-      </c>
-      <c r="F41" s="88">
-        <v>1</v>
-      </c>
-      <c r="G41" s="88">
-        <v>1</v>
-      </c>
-      <c r="H41" s="88">
-        <v>1</v>
-      </c>
-      <c r="I41" s="88">
-        <v>1</v>
-      </c>
-      <c r="J41" s="88">
-        <v>1</v>
-      </c>
-      <c r="K41" s="88">
-        <v>1</v>
-      </c>
-      <c r="L41" s="88">
-        <v>1</v>
-      </c>
-      <c r="M41" s="88">
-        <v>1</v>
-      </c>
-      <c r="N41" s="88">
-        <v>1</v>
-      </c>
-      <c r="O41" s="88">
+      <c r="C42" s="88">
+        <v>1</v>
+      </c>
+      <c r="D42" s="88">
+        <v>1</v>
+      </c>
+      <c r="E42" s="88">
+        <v>1</v>
+      </c>
+      <c r="F42" s="88">
+        <v>1</v>
+      </c>
+      <c r="G42" s="88">
+        <v>1</v>
+      </c>
+      <c r="H42" s="88">
+        <v>1</v>
+      </c>
+      <c r="I42" s="88">
+        <v>1</v>
+      </c>
+      <c r="J42" s="88">
+        <v>1</v>
+      </c>
+      <c r="K42" s="88">
+        <v>1</v>
+      </c>
+      <c r="L42" s="88">
+        <v>1</v>
+      </c>
+      <c r="M42" s="88">
+        <v>1</v>
+      </c>
+      <c r="N42" s="88">
+        <v>1</v>
+      </c>
+      <c r="O42" s="88">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UTAD6hDPFf/Ul0P2TkEmcVLwJIskng6BwO7PQn9KQppd8AxlpMXDzh2uUA/A2vdLAdLHbrkvLJZl/FHFHl0BRA==" saltValue="WyzBb18fC4LyksUq9iofgA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dM4uje+9RyuRxxJKnHAouYPb4///Rtb5SimwoPIpJuy0NanxiYtwY96RXZmiRHdHpR5udqKR1eqcfxMDzk0QSQ==" saltValue="18UcNHkjNKYPMZLpFhWkwg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9428,7 +9472,7 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -9482,7 +9526,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9499,7 +9543,7 @@
       <c r="J2" s="88"/>
       <c r="K2" s="88"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9516,7 +9560,7 @@
       <c r="J3" s="88"/>
       <c r="K3" s="88"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9533,7 +9577,7 @@
       <c r="J4" s="88"/>
       <c r="K4" s="88"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9550,7 +9594,7 @@
       <c r="J5" s="88"/>
       <c r="K5" s="88"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9569,7 +9613,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9588,7 +9632,7 @@
       <c r="J7" s="88"/>
       <c r="K7" s="88"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9607,7 +9651,7 @@
       <c r="J8" s="88"/>
       <c r="K8" s="88"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9626,7 +9670,7 @@
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9643,7 +9687,7 @@
       <c r="J10" s="88"/>
       <c r="K10" s="88"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>207</v>
       </c>
@@ -9660,7 +9704,7 @@
       <c r="J11" s="88"/>
       <c r="K11" s="88"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9677,7 +9721,7 @@
       <c r="J12" s="88"/>
       <c r="K12" s="88"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9694,7 +9738,7 @@
       <c r="J13" s="88"/>
       <c r="K13" s="88"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
         <v>187</v>
       </c>
@@ -9713,7 +9757,7 @@
       <c r="J14" s="88"/>
       <c r="K14" s="88"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>208</v>
       </c>
@@ -9732,7 +9776,7 @@
       <c r="J15" s="88"/>
       <c r="K15" s="88"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9753,7 +9797,7 @@
       <c r="J16" s="88"/>
       <c r="K16" s="88"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9770,7 +9814,7 @@
       <c r="J17" s="88"/>
       <c r="K17" s="88"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9789,7 +9833,7 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9808,7 +9852,7 @@
       <c r="J19" s="88"/>
       <c r="K19" s="88"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9827,7 +9871,7 @@
       <c r="J20" s="88"/>
       <c r="K20" s="88"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9846,7 +9890,7 @@
       <c r="J21" s="88"/>
       <c r="K21" s="88"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9867,7 +9911,7 @@
       <c r="J22" s="88"/>
       <c r="K22" s="88"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -10245,7 +10289,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10274,7 +10318,7 @@
       <c r="J2" s="88"/>
       <c r="K2" s="88"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10303,7 +10347,7 @@
       <c r="J3" s="88"/>
       <c r="K3" s="88"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10332,7 +10376,7 @@
       <c r="J4" s="88"/>
       <c r="K4" s="88"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10361,7 +10405,7 @@
       <c r="J5" s="88"/>
       <c r="K5" s="88"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10390,7 +10434,7 @@
       <c r="J6" s="88"/>
       <c r="K6" s="88"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10411,7 +10455,7 @@
       <c r="J7" s="88"/>
       <c r="K7" s="88"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10432,7 +10476,7 @@
       <c r="J8" s="88"/>
       <c r="K8" s="88"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10453,7 +10497,7 @@
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10474,7 +10518,7 @@
       <c r="J10" s="88"/>
       <c r="K10" s="88"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10495,7 +10539,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10514,7 +10558,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10533,7 +10577,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10607,7 +10651,7 @@
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="139" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -10629,8 +10673,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="135"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="139"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
       </c>
@@ -10651,8 +10695,8 @@
       </c>
       <c r="J3" s="98"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="135"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="139"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
       </c>
@@ -10673,8 +10717,8 @@
       </c>
       <c r="J4" s="98"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="135" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="139" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -10697,8 +10741,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="135"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="139"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
       </c>
@@ -10718,8 +10762,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="135"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="139"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
       </c>
@@ -10739,8 +10783,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="135" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="139" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -10762,8 +10806,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="135"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="139"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
       </c>
@@ -10783,8 +10827,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="135"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="139"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
       </c>
@@ -10804,8 +10848,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="135" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -10827,8 +10871,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="135"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="139"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
       </c>
@@ -10848,8 +10892,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="135"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="139"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
       </c>
@@ -10869,8 +10913,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="135" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="139" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -10892,8 +10936,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="135"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="139"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
       </c>
@@ -10913,8 +10957,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="135"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="139"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
       </c>
@@ -10957,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
       <c r="F18" s="100"/>
@@ -10968,7 +11012,7 @@
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="139" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -10990,8 +11034,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="135"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="139"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
       </c>
@@ -11011,8 +11055,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="135"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="139"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
       </c>
@@ -11032,8 +11076,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="135" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="139" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -11055,8 +11099,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="135"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="139"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
       </c>
@@ -11076,8 +11120,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="135"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="139"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
       </c>
@@ -11097,8 +11141,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="135" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="139" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -11120,8 +11164,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="135"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="139"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
       </c>
@@ -11141,8 +11185,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="135"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="139"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
       </c>
@@ -11162,8 +11206,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="135" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -11186,7 +11230,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="135"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
       </c>
@@ -11207,7 +11251,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="135"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
       </c>
@@ -11228,7 +11272,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="139" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -11251,7 +11295,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="135"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
       </c>
@@ -11272,7 +11316,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="135"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
       </c>
@@ -11326,7 +11370,7 @@
       <c r="A36" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="139" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -11349,7 +11393,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="135"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
       </c>
@@ -11370,7 +11414,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="135"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
       </c>
@@ -11391,7 +11435,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="139" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -11414,7 +11458,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="135"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
       </c>
@@ -11435,7 +11479,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="135"/>
+      <c r="B41" s="139"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
       </c>
@@ -11456,7 +11500,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="135" t="s">
+      <c r="B42" s="139" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -11479,7 +11523,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="135"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
       </c>
@@ -11500,7 +11544,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="135"/>
+      <c r="B44" s="139"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
       </c>
@@ -11521,7 +11565,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="135" t="s">
+      <c r="B45" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -11544,7 +11588,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="135"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
       </c>
@@ -11565,7 +11609,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="135"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
       </c>
@@ -11586,7 +11630,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="139" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -11609,7 +11653,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="135"/>
+      <c r="B49" s="139"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
       </c>
@@ -11630,7 +11674,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="135"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
       </c>
@@ -11676,6 +11720,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11685,12 +11735,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17521,7 +17565,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17552,7 +17596,7 @@
       <c r="F4" s="133"/>
       <c r="G4" s="133"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
         <v>183</v>
       </c>
@@ -17629,7 +17673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17655,7 +17699,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>268</v>
       </c>
@@ -17675,7 +17719,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>269</v>
       </c>
@@ -17695,7 +17739,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17721,7 +17765,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>269</v>
       </c>
@@ -17741,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17764,7 +17808,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
@@ -17784,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17810,7 +17854,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>269</v>
       </c>
@@ -17830,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17853,7 +17897,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>269</v>
       </c>
@@ -17873,7 +17917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17899,7 +17943,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>269</v>
       </c>
@@ -17920,7 +17964,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17944,7 +17988,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>269</v>
       </c>
@@ -17965,7 +18009,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17992,7 +18036,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>268</v>
       </c>
@@ -18013,7 +18057,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -18039,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>268</v>
       </c>
@@ -18059,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18085,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>268</v>
       </c>
@@ -18105,7 +18149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18131,7 +18175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>268</v>
       </c>
@@ -18151,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>269</v>
       </c>
@@ -18171,7 +18215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18197,7 +18241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>268</v>
       </c>
@@ -18217,7 +18261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>269</v>
       </c>
@@ -18237,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18263,7 +18307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>268</v>
       </c>
@@ -18283,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>269</v>
       </c>
@@ -18303,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18329,7 +18373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>268</v>
       </c>
@@ -18349,7 +18393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>269</v>
       </c>
@@ -18369,7 +18413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18395,7 +18439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>268</v>
       </c>
@@ -18415,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>269</v>
       </c>
@@ -18435,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18461,7 +18505,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>268</v>
       </c>
@@ -18481,7 +18525,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>269</v>
       </c>
@@ -18501,7 +18545,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18524,7 +18568,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>268</v>
       </c>
@@ -18544,7 +18588,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>269</v>
       </c>
@@ -18564,7 +18608,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18590,7 +18634,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>268</v>
       </c>
@@ -18610,7 +18654,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18636,7 +18680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>268</v>
       </c>
@@ -18656,7 +18700,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18751,7 +18795,7 @@
       </c>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18775,7 +18819,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -18793,7 +18837,7 @@
       </c>
       <c r="H3" s="134"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18817,7 +18861,7 @@
       </c>
       <c r="H4" s="134"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -18836,7 +18880,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18860,7 +18904,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19939,7 +19983,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19956,10 +20000,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19976,10 +20020,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19996,7 +20040,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -20010,7 +20054,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -20024,7 +20068,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20041,7 +20085,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20055,7 +20099,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20072,7 +20116,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20142,7 +20186,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20156,7 +20200,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20170,7 +20214,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20184,7 +20228,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20198,7 +20242,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20223,7 +20267,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20235,7 +20279,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20247,7 +20291,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20259,7 +20303,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20271,7 +20315,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20296,7 +20340,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20310,7 +20354,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20324,7 +20368,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20338,7 +20382,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20381,52 +20425,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.453125" customWidth="1"/>
     <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="136" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="137" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="139"/>
+      <c r="D2" s="138"/>
     </row>
     <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="136" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="137" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="138"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="THDTDI6gFQG6sxcoBIxkeYJ0DN9sRDdt+s06ZVU7ubYruE8V3BhPB+QJswc4/26vB++Z43zP22MdKla7x+hIfg==" saltValue="XJeJAHzq9TVXeiC8frBHFg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FjVY04+iPZ+KFsAAY50OVBgJhMmG/Eze7ERNwDiYTqpNijGKVPMn+Z7rivyvqHi2EX9g6nqNla/apcDjQLAfng==" saltValue="Wgt1Ghrmmt2XHcb32w2lmA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF7806-C3E7-475C-B432-3CFC186AC943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F330DE5B-1A77-4F2B-ACE3-7737A548BFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1272,6 +1272,12 @@
   </si>
   <si>
     <t>Effectiveness incidence</t>
+  </si>
+  <si>
+    <t>Prevalence of pre-eclampsia</t>
+  </si>
+  <si>
+    <t>Prevalence of eclampsia</t>
   </si>
 </sst>
 </file>
@@ -4800,8 +4806,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5240,11 +5246,27 @@
         <v>0.42</v>
       </c>
     </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="66">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="66">
+        <v>1.4E-2</v>
+      </c>
+    </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MXwI7+vYEyBqm463h7u0eYrjWjXij9mMluGGw2+0xjCg37QK6O700WFjWQWIO3JHkVYd809p8m167nhl8XivYA==" saltValue="P0AbcR6kXT84zBD0E7PGMA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5280,7 +5302,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5289,7 +5311,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>208</v>
       </c>
@@ -5298,7 +5320,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5307,7 +5329,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5316,77 +5338,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5421,74 +5443,74 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5618,7 +5640,7 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
@@ -9402,7 +9424,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9419,7 +9441,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9436,7 +9458,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9453,7 +9475,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9470,7 +9492,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9489,7 +9511,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9508,7 +9530,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9527,7 +9549,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9546,7 +9568,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9563,7 +9585,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>207</v>
       </c>
@@ -9580,7 +9602,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9597,7 +9619,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9614,7 +9636,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9633,7 +9655,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>208</v>
       </c>
@@ -9652,7 +9674,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9673,7 +9695,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9690,7 +9712,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9709,7 +9731,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9728,7 +9750,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9747,7 +9769,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9766,7 +9788,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9787,7 +9809,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9806,7 +9828,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9823,7 +9845,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9840,7 +9862,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9857,7 +9879,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9876,7 +9898,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9893,7 +9915,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9912,7 +9934,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9929,7 +9951,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9948,7 +9970,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9967,7 +9989,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9986,7 +10008,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10005,7 +10027,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10024,7 +10046,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10043,7 +10065,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10060,7 +10082,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10148,7 +10170,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10177,7 +10199,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10206,7 +10228,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10235,7 +10257,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10264,7 +10286,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10293,7 +10315,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10314,7 +10336,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10335,7 +10357,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10356,7 +10378,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10377,7 +10399,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10398,7 +10420,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10417,7 +10439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10436,7 +10458,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10532,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10554,7 +10576,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10576,7 +10598,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="138" t="s">
         <v>1</v>
       </c>
@@ -10600,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10621,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10642,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
@@ -10665,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10686,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10707,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="138" t="s">
         <v>3</v>
       </c>
@@ -10730,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10751,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10772,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="138" t="s">
         <v>4</v>
       </c>
@@ -10795,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10816,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10860,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
@@ -10893,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10914,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10935,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="138" t="s">
         <v>1</v>
       </c>
@@ -10958,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -10979,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -11000,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
@@ -11023,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11044,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11065,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="138" t="s">
         <v>3</v>
       </c>
@@ -11088,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11109,7 +11131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11130,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="138" t="s">
         <v>4</v>
       </c>
@@ -11153,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11174,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11218,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
@@ -11251,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11272,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11293,7 +11315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="138" t="s">
         <v>1</v>
       </c>
@@ -11316,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11337,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11358,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="138" t="s">
         <v>2</v>
       </c>
@@ -11381,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11402,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11423,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="138" t="s">
         <v>3</v>
       </c>
@@ -11446,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11467,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11488,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="138" t="s">
         <v>4</v>
       </c>
@@ -11511,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11532,7 +11554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11579,12 +11601,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11594,6 +11610,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17424,7 +17446,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17455,7 +17477,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17532,7 +17554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17558,7 +17580,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>268</v>
       </c>
@@ -17578,7 +17600,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>269</v>
       </c>
@@ -17598,7 +17620,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17624,7 +17646,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>269</v>
       </c>
@@ -17644,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17667,7 +17689,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>269</v>
       </c>
@@ -17687,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17713,7 +17735,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>269</v>
       </c>
@@ -17733,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17756,7 +17778,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>269</v>
       </c>
@@ -17776,7 +17798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17802,7 +17824,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>269</v>
       </c>
@@ -17823,7 +17845,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17847,7 +17869,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>269</v>
       </c>
@@ -17868,7 +17890,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17895,7 +17917,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>268</v>
       </c>
@@ -17916,7 +17938,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17942,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>268</v>
       </c>
@@ -17962,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17988,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>268</v>
       </c>
@@ -18008,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18034,7 +18056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>268</v>
       </c>
@@ -18054,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>269</v>
       </c>
@@ -18074,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18100,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>268</v>
       </c>
@@ -18120,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>269</v>
       </c>
@@ -18140,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18166,7 +18188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>268</v>
       </c>
@@ -18186,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>269</v>
       </c>
@@ -18206,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18232,7 +18254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>268</v>
       </c>
@@ -18252,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>269</v>
       </c>
@@ -18272,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18298,7 +18320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>268</v>
       </c>
@@ -18318,7 +18340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>269</v>
       </c>
@@ -18338,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18364,7 +18386,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>268</v>
       </c>
@@ -18384,7 +18406,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>269</v>
       </c>
@@ -18404,7 +18426,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18427,7 +18449,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>268</v>
       </c>
@@ -18447,7 +18469,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>269</v>
       </c>
@@ -18467,7 +18489,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18493,7 +18515,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>268</v>
       </c>
@@ -18513,7 +18535,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18539,7 +18561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>268</v>
       </c>
@@ -18559,7 +18581,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18585,7 +18607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>268</v>
       </c>
@@ -18654,7 +18676,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18678,7 +18700,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -18696,7 +18718,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18720,7 +18742,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -18739,7 +18761,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18763,7 +18785,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19858,7 +19880,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19885,10 +19907,10 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19915,10 +19937,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19945,7 +19967,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19969,7 +19991,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -19993,7 +20015,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20022,7 +20044,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20046,7 +20068,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20075,7 +20097,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20111,7 +20133,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20153,7 +20175,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20167,7 +20189,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20181,7 +20203,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20195,7 +20217,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20209,7 +20231,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20234,7 +20256,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20246,7 +20268,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20258,7 +20280,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20270,7 +20292,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20282,14 +20304,16 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="80"/>
+      <c r="E14" s="80" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
@@ -20307,7 +20331,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20321,7 +20345,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20335,7 +20359,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20349,7 +20373,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20363,7 +20387,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F330DE5B-1A77-4F2B-ACE3-7737A548BFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3973BE8-25B5-41DD-BF92-CF7CA0E8246E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1082,9 +1082,6 @@
     <t>Cost-coverage relationship</t>
   </si>
   <si>
-    <t>Unit cost (US$ per person per year)</t>
-  </si>
-  <si>
     <t>IFAS (health facility)</t>
   </si>
   <si>
@@ -1278,6 +1275,9 @@
   </si>
   <si>
     <t>Prevalence of eclampsia</t>
+  </si>
+  <si>
+    <t>Unit cost (US$)</t>
   </si>
 </sst>
 </file>
@@ -4806,7 +4806,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>59</v>
@@ -6366,7 +6366,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8767,7 +8767,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -9394,16 +9394,16 @@
         <v>69</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -9415,13 +9415,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>196</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9587,7 +9587,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
@@ -9657,7 +9657,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
@@ -10137,19 +10137,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -10161,13 +10161,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>196</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10504,7 +10504,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>177</v>
@@ -10530,7 +10530,7 @@
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="138" t="s">
         <v>32</v>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="138" t="s">
         <v>32</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="138" t="s">
         <v>32</v>
@@ -11601,6 +11601,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11610,12 +11616,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12741,7 +12741,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12761,7 +12761,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12870,7 +12870,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12890,7 +12890,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12908,7 +12908,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="121" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12926,7 +12926,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -13139,18 +13139,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" s="127" t="s">
-        <v>233</v>
       </c>
       <c r="D2" s="109" t="s">
         <v>1</v>
@@ -13182,7 +13182,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13210,7 +13210,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13238,7 +13238,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13266,7 +13266,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13297,7 +13297,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13325,7 +13325,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13353,7 +13353,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13381,7 +13381,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13412,7 +13412,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13440,7 +13440,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13468,7 +13468,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13496,7 +13496,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13583,7 +13583,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13611,7 +13611,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13670,7 +13670,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13698,7 +13698,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13726,7 +13726,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13757,7 +13757,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13785,7 +13785,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13841,7 +13841,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13869,18 +13869,18 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="129" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="98" t="s">
         <v>239</v>
-      </c>
-      <c r="B29" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="98" t="s">
-        <v>240</v>
       </c>
       <c r="D29" s="109" t="s">
         <v>1</v>
@@ -13912,7 +13912,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13940,7 +13940,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -14027,7 +14027,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14142,7 +14142,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14170,7 +14170,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14285,7 +14285,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14372,7 +14372,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14400,7 +14400,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14487,7 +14487,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14515,7 +14515,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -14611,10 +14611,10 @@
         <v>70</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="109" t="s">
         <v>53</v>
@@ -14640,7 +14640,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14687,7 +14687,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14709,7 +14709,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14734,7 +14734,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -14790,10 +14790,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="109" t="s">
         <v>1</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -15868,7 +15868,7 @@
         <v>169</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="109" t="s">
         <v>1</v>
@@ -16043,7 +16043,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16069,10 +16069,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="115" t="s">
         <v>249</v>
-      </c>
-      <c r="C3" s="115" t="s">
-        <v>250</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16090,7 +16090,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="115">
         <v>1.0249999999999999</v>
@@ -16110,7 +16110,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16183,7 +16183,7 @@
     </row>
     <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16213,15 +16213,15 @@
     </row>
     <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="115">
         <v>1.0249999999999999</v>
@@ -16242,7 +16242,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="115">
         <v>1.0249999999999999</v>
@@ -16265,7 +16265,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="115">
         <v>1</v>
@@ -16286,7 +16286,7 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16371,7 +16371,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16389,7 +16389,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16409,7 +16409,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16427,7 +16427,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16444,10 +16444,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16465,7 +16465,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16485,7 +16485,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16503,7 +16503,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16523,7 +16523,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16541,7 +16541,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16561,7 +16561,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16579,7 +16579,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -16764,7 +16764,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16940,7 +16940,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17468,7 +17468,7 @@
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17533,10 +17533,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="133" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" s="133" t="s">
-        <v>266</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17562,7 +17562,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17582,7 +17582,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17602,7 +17602,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17628,7 +17628,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17671,7 +17671,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17691,7 +17691,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17717,7 +17717,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17760,7 +17760,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17780,7 +17780,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17806,7 +17806,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17826,7 +17826,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17850,7 +17850,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17871,7 +17871,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17898,7 +17898,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17946,7 +17946,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17966,7 +17966,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17992,7 +17992,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -18012,7 +18012,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -18038,7 +18038,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -18058,7 +18058,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18078,7 +18078,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18104,7 +18104,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18124,7 +18124,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18190,7 +18190,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18210,7 +18210,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18256,7 +18256,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18276,7 +18276,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18302,7 +18302,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18322,7 +18322,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18368,7 +18368,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18388,7 +18388,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18408,7 +18408,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18431,7 +18431,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18451,7 +18451,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D42" s="115">
         <v>0.5</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18497,7 +18497,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18517,7 +18517,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18543,7 +18543,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18563,7 +18563,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18589,7 +18589,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18609,7 +18609,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18659,7 +18659,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
@@ -18684,7 +18684,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18702,7 +18702,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18726,7 +18726,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18745,7 +18745,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18769,7 +18769,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18788,7 +18788,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18841,10 +18841,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>210</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>211</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18943,7 +18943,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -19149,7 +19149,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>32</v>
@@ -20473,8 +20473,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20499,7 +20499,7 @@
         <v>200</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>205</v>
@@ -20660,7 +20660,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -21139,7 +21139,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zGqGWUHks9r73YYvhtsA/6n2sxkq6NyOLMnszdwkuYHRGc3RAKyH9yLxkOwoypM6IGMaCGHxxq0vP7rXnZY93w==" saltValue="sA5n05NYbI4nfIN6wumz0A==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="30TaiB8vJCEzpkLntDu06G/9G6tTuvVPeBoeyQvK7ww3cK1voht8+45BxjcYasYwmrMsshcnTxjm0/ClcQ7gYg==" saltValue="vEqYeAv7mn5bDu1zm8IXSA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3973BE8-25B5-41DD-BF92-CF7CA0E8246E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6624F2A-8F89-4EB2-8C6A-BCC5605EB772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -91,14 +91,12 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -111,7 +109,31 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{28B93786-755E-4E0C-80EE-70CDEE123809}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cost per person per year, or per pregnancy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{B66B7587-26E8-419F-8DF1-122A0CAF58AD}">
       <text>
         <r>
           <rPr>
@@ -131,50 +153,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The cost per child per year can be estimated as 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">= (cost per treatment) * (annual diarrhoea incidence)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+Cost per treatment</t>
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{55846B90-F252-46BC-B910-F6BCB2292213}">
       <text>
         <r>
           <rPr>
@@ -194,27 +177,21 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Cost per treatment</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{42D25B81-62AC-4DD6-8958-860BA34EBEC1}">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The cost per child per year can be estimated as 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">= (cost per treatment episode) * (SAM prevalence) * 2.6
-</t>
+          <t>Nick Scott:</t>
         </r>
         <r>
           <rPr>
@@ -224,42 +201,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cost per treatment episode includes management of MAM (if selected) and is an average over delivery modalities. See user guide for further information</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The cost per child per year can be estimated as 
-= (cost per treatment) * (annual diarrhoea incidence)
-Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+Cost per treatment</t>
         </r>
       </text>
     </comment>
@@ -462,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1290,7 +1232,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1461,6 +1403,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2316,7 +2271,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2627,6 +2582,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
@@ -4806,18 +4764,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4828,14 +4786,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4844,7 +4802,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4853,17 +4811,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4871,7 +4829,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4879,7 +4837,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4887,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4895,7 +4853,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4903,7 +4861,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4911,7 +4869,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4919,17 +4877,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4937,7 +4895,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4945,7 +4903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4953,7 +4911,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4961,7 +4919,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4970,15 +4928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4986,7 +4944,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4994,7 +4952,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -5002,7 +4960,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -5010,18 +4968,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -5029,7 +4987,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -5037,7 +4995,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -5045,7 +5003,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5053,7 +5011,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5062,20 +5020,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5083,7 +5041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5093,7 +5051,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5103,7 +5061,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5111,7 +5069,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5119,7 +5077,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5127,16 +5085,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5145,7 +5103,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5154,7 +5112,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5164,7 +5122,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5175,16 +5133,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5193,7 +5151,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5201,7 +5159,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5209,7 +5167,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5217,7 +5175,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5225,12 +5183,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5238,7 +5196,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5246,7 +5204,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5254,7 +5212,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5262,7 +5220,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5283,15 +5241,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5302,7 +5260,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5311,7 +5269,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -5320,7 +5278,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5329,7 +5287,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5338,77 +5296,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5432,85 +5390,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5530,9 +5488,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5552,7 +5510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5577,7 +5535,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5602,7 +5560,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5641,22 +5599,22 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5703,7 +5661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5754,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5798,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5842,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5888,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5935,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -5984,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -6030,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -6078,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -6122,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
@@ -6171,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6215,10 +6173,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6269,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6314,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6363,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6412,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6460,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6504,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6548,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6596,10 +6554,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6650,7 +6608,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6698,7 +6656,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6746,7 +6704,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6794,7 +6752,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6839,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6849,7 +6807,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6907,7 +6865,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6962,7 +6920,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -7017,7 +6975,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -7061,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -7118,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7162,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7207,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7251,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7295,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7339,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7358,24 +7316,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7396,16 +7354,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7422,7 +7380,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7440,7 +7398,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7458,7 +7416,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7476,7 +7434,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7494,7 +7452,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7512,7 +7470,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7530,7 +7488,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7548,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7566,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7584,7 +7542,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7605,20 +7563,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7665,7 +7623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7712,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7756,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7800,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7844,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7888,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7932,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7976,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8020,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8064,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8108,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8152,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8196,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8240,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8284,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8300,7 +8258,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8347,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8392,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8436,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -8480,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8524,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8568,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8612,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8656,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8672,7 +8630,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8720,7 +8678,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8764,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8809,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8853,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8897,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8913,7 +8871,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8960,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9004,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9048,7 +9006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9092,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9136,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9181,7 +9139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9225,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9269,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9313,7 +9271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9374,22 +9332,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9424,7 +9382,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9441,7 +9399,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9458,7 +9416,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9475,7 +9433,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9492,7 +9450,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9511,7 +9469,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9530,7 +9488,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9549,7 +9507,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9568,7 +9526,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9585,7 +9543,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9602,7 +9560,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9619,7 +9577,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9636,7 +9594,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9655,7 +9613,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="92" t="s">
         <v>207</v>
       </c>
@@ -9674,7 +9632,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9695,7 +9653,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9712,7 +9670,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9731,7 +9689,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9750,7 +9708,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9769,7 +9727,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9788,7 +9746,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9809,7 +9767,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9828,7 +9786,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9845,7 +9803,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9862,7 +9820,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9879,7 +9837,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9898,7 +9856,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9915,7 +9873,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9934,7 +9892,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9951,7 +9909,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9970,7 +9928,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9989,7 +9947,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10008,7 +9966,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10027,7 +9985,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10046,7 +10004,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10065,7 +10023,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10082,7 +10040,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10120,22 +10078,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10170,7 +10128,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10199,7 +10157,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10228,7 +10186,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10257,7 +10215,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10286,7 +10244,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10315,7 +10273,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10336,7 +10294,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10357,7 +10315,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10378,7 +10336,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10399,7 +10357,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10420,7 +10378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10439,7 +10397,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10458,7 +10416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10494,15 +10452,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10528,11 +10486,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -10554,8 +10512,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="138"/>
+    <row r="3" spans="1:10">
+      <c r="B3" s="139"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
       </c>
@@ -10576,8 +10534,8 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="138"/>
+    <row r="4" spans="1:10">
+      <c r="B4" s="139"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
       </c>
@@ -10598,8 +10556,8 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="138" t="s">
+    <row r="5" spans="1:10">
+      <c r="B5" s="139" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -10622,8 +10580,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="138"/>
+    <row r="6" spans="1:10">
+      <c r="B6" s="139"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
       </c>
@@ -10643,8 +10601,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="138"/>
+    <row r="7" spans="1:10">
+      <c r="B7" s="139"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
       </c>
@@ -10664,8 +10622,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="138" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="139" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -10687,8 +10645,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="138"/>
+    <row r="9" spans="1:10">
+      <c r="B9" s="139"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
       </c>
@@ -10708,8 +10666,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="138"/>
+    <row r="10" spans="1:10">
+      <c r="B10" s="139"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
       </c>
@@ -10729,8 +10687,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="138" t="s">
+    <row r="11" spans="1:10">
+      <c r="B11" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -10752,8 +10710,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="138"/>
+    <row r="12" spans="1:10">
+      <c r="B12" s="139"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
       </c>
@@ -10773,8 +10731,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="138"/>
+    <row r="13" spans="1:10">
+      <c r="B13" s="139"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
       </c>
@@ -10794,8 +10752,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="138" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14" s="139" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -10817,8 +10775,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="138"/>
+    <row r="15" spans="1:10">
+      <c r="B15" s="139"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
       </c>
@@ -10838,8 +10796,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="138"/>
+    <row r="16" spans="1:10">
+      <c r="B16" s="139"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
       </c>
@@ -10859,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10882,18 +10840,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="139" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -10915,8 +10873,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="138"/>
+    <row r="20" spans="1:8">
+      <c r="B20" s="139"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
       </c>
@@ -10936,8 +10894,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="138"/>
+    <row r="21" spans="1:8">
+      <c r="B21" s="139"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
       </c>
@@ -10957,8 +10915,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="138" t="s">
+    <row r="22" spans="1:8">
+      <c r="B22" s="139" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -10980,8 +10938,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="138"/>
+    <row r="23" spans="1:8">
+      <c r="B23" s="139"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
       </c>
@@ -11001,8 +10959,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="138"/>
+    <row r="24" spans="1:8">
+      <c r="B24" s="139"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
       </c>
@@ -11022,8 +10980,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="138" t="s">
+    <row r="25" spans="1:8">
+      <c r="B25" s="139" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -11045,8 +11003,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="138"/>
+    <row r="26" spans="1:8">
+      <c r="B26" s="139"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
       </c>
@@ -11066,8 +11024,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="138"/>
+    <row r="27" spans="1:8">
+      <c r="B27" s="139"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
       </c>
@@ -11087,8 +11045,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="138" t="s">
+    <row r="28" spans="1:8">
+      <c r="B28" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -11110,8 +11068,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="138"/>
+    <row r="29" spans="1:8">
+      <c r="B29" s="139"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
       </c>
@@ -11131,8 +11089,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="138"/>
+    <row r="30" spans="1:8">
+      <c r="B30" s="139"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
       </c>
@@ -11152,8 +11110,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="138" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" s="139" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -11175,8 +11133,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="138"/>
+    <row r="32" spans="1:8">
+      <c r="B32" s="139"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
       </c>
@@ -11196,8 +11154,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="138"/>
+    <row r="33" spans="1:8">
+      <c r="B33" s="139"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
       </c>
@@ -11217,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11240,18 +11198,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="139" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -11273,8 +11231,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="138"/>
+    <row r="37" spans="1:8">
+      <c r="B37" s="139"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
       </c>
@@ -11294,8 +11252,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="138"/>
+    <row r="38" spans="1:8">
+      <c r="B38" s="139"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
       </c>
@@ -11315,8 +11273,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="138" t="s">
+    <row r="39" spans="1:8">
+      <c r="B39" s="139" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -11338,8 +11296,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="138"/>
+    <row r="40" spans="1:8">
+      <c r="B40" s="139"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
       </c>
@@ -11359,8 +11317,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="138"/>
+    <row r="41" spans="1:8">
+      <c r="B41" s="139"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
       </c>
@@ -11380,8 +11338,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="138" t="s">
+    <row r="42" spans="1:8">
+      <c r="B42" s="139" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -11403,8 +11361,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="138"/>
+    <row r="43" spans="1:8">
+      <c r="B43" s="139"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
       </c>
@@ -11424,8 +11382,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="138"/>
+    <row r="44" spans="1:8">
+      <c r="B44" s="139"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
       </c>
@@ -11445,8 +11403,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="138" t="s">
+    <row r="45" spans="1:8">
+      <c r="B45" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -11468,8 +11426,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="138"/>
+    <row r="46" spans="1:8">
+      <c r="B46" s="139"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
       </c>
@@ -11489,8 +11447,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="138"/>
+    <row r="47" spans="1:8">
+      <c r="B47" s="139"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
       </c>
@@ -11510,8 +11468,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="138" t="s">
+    <row r="48" spans="1:8">
+      <c r="B48" s="139" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -11533,8 +11491,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="138"/>
+    <row r="49" spans="2:8">
+      <c r="B49" s="139"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
       </c>
@@ -11554,8 +11512,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="138"/>
+    <row r="50" spans="2:8">
+      <c r="B50" s="139"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
       </c>
@@ -11575,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11633,14 +11591,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11669,7 +11627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11702,7 +11660,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11735,7 +11693,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11768,7 +11726,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11801,7 +11759,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11834,7 +11792,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11867,7 +11825,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11900,7 +11858,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11933,7 +11891,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11966,7 +11924,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11999,7 +11957,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -12032,7 +11990,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12065,7 +12023,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12098,7 +12056,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12131,7 +12089,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12154,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12177,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12200,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12223,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12246,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12269,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12292,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12315,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12338,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12361,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12384,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12407,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12430,7 +12388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12453,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12476,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12499,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12522,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12545,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12568,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12591,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12614,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12637,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12660,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12683,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12729,22 +12687,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12759,7 +12717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12769,7 +12727,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="113" t="s">
         <v>75</v>
       </c>
@@ -12786,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
@@ -12803,7 +12761,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="113" t="s">
         <v>77</v>
       </c>
@@ -12820,7 +12778,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="113" t="s">
         <v>78</v>
       </c>
@@ -12837,13 +12795,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12861,14 +12819,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="105" t="s">
         <v>224</v>
       </c>
@@ -12878,7 +12836,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12888,7 +12846,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="121" t="s">
         <v>226</v>
       </c>
@@ -12906,7 +12864,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="121" t="s">
         <v>227</v>
       </c>
@@ -12924,7 +12882,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="121" t="s">
         <v>228</v>
       </c>
@@ -12942,7 +12900,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12951,7 +12909,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12962,7 +12920,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="125" t="s">
         <v>73</v>
       </c>
@@ -12980,7 +12938,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="125" t="s">
         <v>7</v>
       </c>
@@ -12998,7 +12956,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="125" t="s">
         <v>8</v>
       </c>
@@ -13016,7 +12974,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="125" t="s">
         <v>10</v>
       </c>
@@ -13034,7 +12992,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="125" t="s">
         <v>13</v>
       </c>
@@ -13051,7 +13009,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="125" t="s">
         <v>14</v>
       </c>
@@ -13068,7 +13026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="125" t="s">
         <v>27</v>
       </c>
@@ -13085,7 +13043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="125" t="s">
         <v>15</v>
       </c>
@@ -13102,10 +13060,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13126,23 +13084,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1">
       <c r="A1" s="105" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="126" t="s">
         <v>211</v>
       </c>
@@ -13176,7 +13134,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13208,7 +13166,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13236,7 +13194,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13264,7 +13222,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13292,7 +13250,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13323,7 +13281,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13351,7 +13309,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13379,7 +13337,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13407,7 +13365,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13438,7 +13396,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13466,7 +13424,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13494,7 +13452,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13522,7 +13480,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13553,7 +13511,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13581,7 +13539,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13609,7 +13567,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13637,7 +13595,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13668,7 +13626,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13696,7 +13654,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13724,7 +13682,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13752,7 +13710,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13783,7 +13741,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13811,7 +13769,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13839,7 +13797,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13867,12 +13825,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1">
       <c r="A28" s="105" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="129" t="s">
         <v>238</v>
       </c>
@@ -13906,7 +13864,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13938,7 +13896,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13966,7 +13924,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13994,7 +13952,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14022,7 +13980,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14053,7 +14011,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14081,7 +14039,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14109,7 +14067,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14137,7 +14095,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14168,7 +14126,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14196,7 +14154,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14224,7 +14182,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14252,7 +14210,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14283,7 +14241,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14311,7 +14269,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14339,7 +14297,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14367,7 +14325,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14398,7 +14356,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14426,7 +14384,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14454,7 +14412,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14482,7 +14440,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14513,7 +14471,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14541,7 +14499,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14569,7 +14527,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14597,16 +14555,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14634,7 +14592,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14660,7 +14618,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14682,7 +14640,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14707,7 +14665,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14729,7 +14687,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14754,7 +14712,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14776,16 +14734,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14819,7 +14777,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14851,7 +14809,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14879,7 +14837,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14907,7 +14865,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14935,7 +14893,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14966,7 +14924,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14994,7 +14952,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15022,7 +14980,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15050,7 +15008,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15081,7 +15039,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15109,7 +15067,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15137,7 +15095,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15165,7 +15123,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15196,7 +15154,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15224,7 +15182,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15252,7 +15210,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15280,7 +15238,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15311,7 +15269,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15339,7 +15297,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15367,7 +15325,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15395,7 +15353,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15426,7 +15384,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15454,7 +15412,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15482,7 +15440,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15510,7 +15468,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15541,7 +15499,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15569,7 +15527,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15597,7 +15555,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15625,7 +15583,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15656,7 +15614,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15684,7 +15642,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15712,7 +15670,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15740,7 +15698,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15771,7 +15729,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15799,7 +15757,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15827,7 +15785,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15855,12 +15813,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15894,7 +15852,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15924,7 +15882,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15952,7 +15910,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15980,7 +15938,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16008,7 +15966,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16029,24 +15987,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16067,7 +16025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="121" t="s">
         <v>248</v>
       </c>
@@ -16087,7 +16045,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16108,12 +16066,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="125" t="s">
         <v>58</v>
       </c>
@@ -16133,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="125" t="s">
         <v>136</v>
       </c>
@@ -16153,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="125" t="s">
         <v>60</v>
       </c>
@@ -16173,7 +16131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16181,12 +16139,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16207,16 +16165,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="133" t="s">
         <v>238</v>
       </c>
@@ -16239,7 +16197,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>255</v>
@@ -16260,7 +16218,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16283,13 +16241,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16303,7 +16261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="121" t="s">
         <v>197</v>
       </c>
@@ -16339,16 +16297,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16366,7 +16324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="92" t="s">
         <v>29</v>
       </c>
@@ -16386,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16404,7 +16362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="92" t="s">
         <v>187</v>
       </c>
@@ -16424,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16442,7 +16400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="92" t="s">
         <v>207</v>
       </c>
@@ -16462,7 +16420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16480,7 +16438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="92" t="s">
         <v>57</v>
       </c>
@@ -16500,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16518,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="92" t="s">
         <v>34</v>
       </c>
@@ -16538,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16556,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="92" t="s">
         <v>59</v>
       </c>
@@ -16576,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16594,10 +16552,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
@@ -16618,15 +16576,15 @@
       <selection activeCell="E19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16669,12 +16627,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16718,7 +16676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16762,7 +16720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16806,7 +16764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16850,7 +16808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16894,7 +16852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="92" t="s">
         <v>187</v>
       </c>
@@ -16938,7 +16896,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="92" t="s">
         <v>207</v>
       </c>
@@ -16982,7 +16940,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -17026,7 +16984,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="92" t="s">
         <v>136</v>
       </c>
@@ -17070,7 +17028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17114,7 +17072,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17158,7 +17116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17202,13 +17160,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="92" t="s">
         <v>63</v>
       </c>
@@ -17252,7 +17210,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="92" t="s">
         <v>64</v>
       </c>
@@ -17296,7 +17254,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -17340,7 +17298,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="92" t="s">
         <v>47</v>
       </c>
@@ -17384,16 +17342,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17414,15 +17372,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17441,12 +17399,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17466,7 +17424,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17477,7 +17435,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17515,20 +17473,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17554,7 +17512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17580,7 +17538,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17600,7 +17558,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17620,7 +17578,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17646,7 +17604,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17666,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17689,7 +17647,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17709,7 +17667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17735,7 +17693,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17755,7 +17713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17778,7 +17736,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17798,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17824,7 +17782,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17845,7 +17803,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17869,7 +17827,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17890,7 +17848,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17917,7 +17875,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17938,7 +17896,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17964,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17984,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18010,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -18030,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18056,7 +18014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18076,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18096,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18122,7 +18080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18142,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18162,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18188,7 +18146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18208,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18228,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18254,7 +18212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18274,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18294,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18320,7 +18278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18340,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18360,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18386,7 +18344,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18406,7 +18364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18426,7 +18384,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18449,7 +18407,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18469,7 +18427,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18489,7 +18447,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18515,7 +18473,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18535,7 +18493,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18561,7 +18519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18581,7 +18539,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18607,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18645,16 +18603,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18676,7 +18634,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18700,7 +18658,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18718,7 +18676,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18742,7 +18700,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18761,7 +18719,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18785,7 +18743,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18821,14 +18779,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18839,7 +18797,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18854,7 +18812,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18862,7 +18820,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18870,7 +18828,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18878,7 +18836,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18886,7 +18844,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18894,7 +18852,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18902,7 +18860,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18910,7 +18868,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18918,7 +18876,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18929,7 +18887,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18938,7 +18896,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18959,7 +18917,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18976,7 +18934,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18993,7 +18951,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -19010,7 +18968,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -19027,7 +18985,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -19044,7 +19002,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19061,7 +19019,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19078,7 +19036,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19095,7 +19053,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19112,7 +19070,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19135,7 +19093,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19144,7 +19102,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19160,7 +19118,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19168,7 +19126,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19176,7 +19134,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19184,7 +19142,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19192,7 +19150,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19200,7 +19158,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19208,7 +19166,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19216,7 +19174,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19224,7 +19182,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19232,7 +19190,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19260,13 +19218,13 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19290,7 +19248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19318,7 +19276,7 @@
         <v>0.18417555450115231</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19344,7 +19302,7 @@
         <v>0.35582444549884773</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19365,7 +19323,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19387,7 +19345,7 @@
       </c>
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19395,7 +19353,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19403,7 +19361,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19431,7 +19389,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19456,7 +19414,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19476,7 +19434,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19496,7 +19454,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19510,7 +19468,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19554,7 +19512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19598,7 +19556,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19655,14 +19613,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19688,13 +19646,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19718,7 +19676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19741,7 +19699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19761,7 +19719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19781,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19824,13 +19782,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19880,7 +19838,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19907,10 +19865,10 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19937,10 +19895,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19967,7 +19925,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19991,7 +19949,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -20015,7 +19973,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20044,7 +20002,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20068,7 +20026,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20097,7 +20055,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20133,18 +20091,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20161,7 +20119,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20175,13 +20133,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="80" t="b">
-        <v>1</v>
+      <c r="C3" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="57" t="str">
@@ -20189,13 +20147,13 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80" t="b">
-        <v>1</v>
+      <c r="C4" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="57" t="str">
@@ -20203,13 +20161,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="80" t="b">
-        <v>1</v>
+      <c r="C5" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="57" t="str">
@@ -20217,13 +20175,13 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="80" t="b">
-        <v>1</v>
+      <c r="C6" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="57" t="str">
@@ -20231,7 +20189,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20240,7 +20198,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20248,15 +20206,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="80"/>
-      <c r="D9" s="80" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="80"/>
       <c r="E9" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20268,7 +20224,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20280,7 +20236,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20292,7 +20248,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20304,7 +20260,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20315,7 +20271,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20331,7 +20287,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20345,7 +20301,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20359,7 +20315,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20373,7 +20329,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20387,7 +20343,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20414,15 +20370,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20436,7 +20392,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20448,7 +20404,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20473,21 +20429,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20505,7 +20461,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20515,14 +20471,14 @@
       <c r="C2" s="81">
         <v>0.95</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="138">
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20532,14 +20488,14 @@
       <c r="C3" s="81">
         <v>0.95</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="138">
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20549,14 +20505,14 @@
       <c r="C4" s="81">
         <v>0.95</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="138">
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20566,14 +20522,14 @@
       <c r="C5" s="81">
         <v>0.95</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="138">
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20583,14 +20539,14 @@
       <c r="C6" s="81">
         <v>0.95</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="138">
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20600,14 +20556,14 @@
       <c r="C7" s="81">
         <v>0.95</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="138">
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20617,14 +20573,14 @@
       <c r="C8" s="81">
         <v>0.95</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="138">
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20634,14 +20590,14 @@
       <c r="C9" s="81">
         <v>0.95</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="138">
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20651,14 +20607,14 @@
       <c r="C10" s="81">
         <v>0.95</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="138">
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20668,14 +20624,14 @@
       <c r="C11" s="81">
         <v>0.95</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="138">
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20685,14 +20641,14 @@
       <c r="C12" s="81">
         <v>0.95</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="138">
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20702,14 +20658,14 @@
       <c r="C13" s="81">
         <v>0.95</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="138">
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20719,14 +20675,14 @@
       <c r="C14" s="81">
         <v>0.95</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="138">
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20736,14 +20692,14 @@
       <c r="C15" s="81">
         <v>0.95</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="138">
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20753,14 +20709,14 @@
       <c r="C16" s="81">
         <v>0.95</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="138">
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20770,14 +20726,14 @@
       <c r="C17" s="81">
         <v>0.95</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="138">
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20787,14 +20743,14 @@
       <c r="C18" s="81">
         <v>0.95</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="138">
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20804,14 +20760,14 @@
       <c r="C19" s="81">
         <v>0.95</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="138">
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20821,14 +20777,14 @@
       <c r="C20" s="81">
         <v>0.95</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="138">
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20838,14 +20794,14 @@
       <c r="C21" s="81">
         <v>0.95</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="138">
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20855,14 +20811,14 @@
       <c r="C22" s="81">
         <v>0.95</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="138">
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20872,14 +20828,14 @@
       <c r="C23" s="81">
         <v>0.95</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="138">
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20889,14 +20845,14 @@
       <c r="C24" s="81">
         <v>0.95</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="138">
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20906,14 +20862,14 @@
       <c r="C25" s="81">
         <v>0.95</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="138">
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20923,14 +20879,14 @@
       <c r="C26" s="81">
         <v>0.95</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="138">
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20940,14 +20896,14 @@
       <c r="C27" s="81">
         <v>0.95</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="138">
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20957,14 +20913,14 @@
       <c r="C28" s="81">
         <v>0.95</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="138">
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20974,14 +20930,14 @@
       <c r="C29" s="81">
         <v>0.95</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="138">
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20991,14 +20947,14 @@
       <c r="C30" s="81">
         <v>0.95</v>
       </c>
-      <c r="D30" s="82">
-        <v>5.3</v>
+      <c r="D30" s="138">
+        <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -21008,14 +20964,14 @@
       <c r="C31" s="81">
         <v>0.95</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="138">
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -21025,14 +20981,14 @@
       <c r="C32" s="81">
         <v>0.95</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="138">
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21042,14 +20998,14 @@
       <c r="C33" s="81">
         <v>0.95</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="138">
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21059,14 +21015,14 @@
       <c r="C34" s="81">
         <v>0.95</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="138">
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21076,14 +21032,14 @@
       <c r="C35" s="81">
         <v>0.95</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="138">
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21093,7 +21049,7 @@
       <c r="C36" s="81">
         <v>0.95</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="138">
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -21101,7 +21057,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21111,14 +21067,14 @@
       <c r="C37" s="81">
         <v>0.95</v>
       </c>
-      <c r="D37" s="82">
+      <c r="D37" s="138">
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21128,18 +21084,18 @@
       <c r="C38" s="81">
         <v>0.95</v>
       </c>
-      <c r="D38" s="82">
+      <c r="D38" s="138">
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="30TaiB8vJCEzpkLntDu06G/9G6tTuvVPeBoeyQvK7ww3cK1voht8+45BxjcYasYwmrMsshcnTxjm0/ClcQ7gYg==" saltValue="vEqYeAv7mn5bDu1zm8IXSA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IGvyDm/QJ5ofuBuGIXafqSQdu8vrzSSxkgNQjhY4DXlpGmLoDuUZEg/91oa8fxT3CFOTiya6Xz2wxM5qH1qfeg==" saltValue="7f++W5Qs7CjwfuaDlYFYOQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6624F2A-8F89-4EB2-8C6A-BCC5605EB772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8342933-4CAF-470E-858D-F658AAE59589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,14 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -117,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -126,7 +128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cost per person per year, or per pregnancy</t>
@@ -1232,7 +1234,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1402,19 +1404,6 @@
       <color theme="2" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4764,18 +4753,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4786,14 +4775,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4802,7 +4791,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4811,17 +4800,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4829,7 +4818,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4837,7 +4826,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4845,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4853,7 +4842,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4861,7 +4850,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4869,7 +4858,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4877,17 +4866,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4895,7 +4884,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4903,7 +4892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4911,7 +4900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4919,7 +4908,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4928,15 +4917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4944,7 +4933,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4952,7 +4941,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -4960,7 +4949,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -4968,18 +4957,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -4987,7 +4976,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -4995,7 +4984,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -5003,7 +4992,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5011,7 +5000,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5020,20 +5009,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5041,7 +5030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5051,7 +5040,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5061,7 +5050,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5069,7 +5058,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5077,7 +5066,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5085,16 +5074,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5103,7 +5092,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5112,7 +5101,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5122,7 +5111,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5133,16 +5122,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5151,7 +5140,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5159,7 +5148,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5167,7 +5156,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5175,7 +5164,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5183,12 +5172,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5196,7 +5185,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5204,7 +5193,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5212,7 +5201,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5220,7 +5209,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5241,15 +5230,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5260,7 +5249,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5269,7 +5258,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -5278,7 +5267,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5287,7 +5276,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5296,77 +5285,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5390,85 +5379,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5488,9 +5477,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5510,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5535,7 +5524,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5560,7 +5549,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5598,23 +5587,23 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5661,7 +5650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5712,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5756,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5800,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5846,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5893,29 +5882,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -5942,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -5988,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -6036,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -6080,29 +6069,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -6129,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6173,10 +6162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6227,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6272,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6321,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6370,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6418,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6462,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6506,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6554,10 +6543,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6608,7 +6597,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6656,7 +6645,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6704,7 +6693,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6752,7 +6741,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6797,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6807,7 +6796,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6865,7 +6854,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6920,7 +6909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -6975,7 +6964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -7019,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -7076,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7120,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7165,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7209,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7253,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7297,7 +7286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7316,24 +7305,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7354,16 +7343,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7380,7 +7369,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7398,7 +7387,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7416,7 +7405,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7434,7 +7423,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7452,7 +7441,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7470,7 +7459,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7488,7 +7477,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7506,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7524,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7542,7 +7531,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7563,20 +7552,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="55"/>
+    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7623,7 +7612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7670,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7714,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7758,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7802,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7846,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7890,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7934,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7978,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8022,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8066,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8110,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8154,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8198,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8242,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8258,7 +8247,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8305,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8350,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8394,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -8438,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8482,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8526,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8570,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8614,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8630,7 +8619,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8678,7 +8667,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8722,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8767,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8811,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8855,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8871,7 +8860,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8918,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8962,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9006,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9050,7 +9039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9094,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9139,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9183,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9227,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9271,7 +9260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9332,22 +9321,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9382,7 +9371,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9399,7 +9388,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9416,7 +9405,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9433,7 +9422,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9450,7 +9439,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9469,7 +9458,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9488,7 +9477,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9507,7 +9496,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9526,7 +9515,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9543,7 +9532,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9560,7 +9549,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9577,7 +9566,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9594,7 +9583,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9613,7 +9602,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>207</v>
       </c>
@@ -9632,7 +9621,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9653,7 +9642,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9670,7 +9659,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9689,7 +9678,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9708,7 +9697,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9727,7 +9716,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9746,7 +9735,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9767,7 +9756,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9786,7 +9775,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9803,7 +9792,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9820,7 +9809,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9837,7 +9826,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9856,7 +9845,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9873,7 +9862,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9892,7 +9881,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9909,7 +9898,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9928,7 +9917,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9947,7 +9936,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9966,7 +9955,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -9985,7 +9974,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10004,7 +9993,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10023,7 +10012,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10040,7 +10029,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10078,22 +10067,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10128,7 +10117,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10157,7 +10146,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10186,7 +10175,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10215,7 +10204,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10244,7 +10233,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10273,7 +10262,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10294,7 +10283,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10315,7 +10304,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10336,7 +10325,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10357,7 +10346,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10378,7 +10367,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10397,7 +10386,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10416,7 +10405,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10452,15 +10441,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10486,7 +10475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
@@ -10512,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="139"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10534,7 +10523,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="139"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10556,7 +10545,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="139" t="s">
         <v>1</v>
       </c>
@@ -10580,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="139"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10601,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="139"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10622,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="139" t="s">
         <v>2</v>
       </c>
@@ -10645,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="139"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10666,7 +10655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="139"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10687,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="139" t="s">
         <v>3</v>
       </c>
@@ -10710,7 +10699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="139"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10731,7 +10720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="139"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10752,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="139" t="s">
         <v>4</v>
       </c>
@@ -10775,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="139"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10796,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="139"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10817,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10840,14 +10829,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
@@ -10873,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="139"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10894,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="139"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10915,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="139" t="s">
         <v>1</v>
       </c>
@@ -10938,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="139"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -10959,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="139"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -10980,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="139" t="s">
         <v>2</v>
       </c>
@@ -11003,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="139"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11024,7 +11013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="139"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11045,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="139" t="s">
         <v>3</v>
       </c>
@@ -11068,7 +11057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="139"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11089,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="139"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11110,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="139" t="s">
         <v>4</v>
       </c>
@@ -11133,7 +11122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="139"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11154,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="139"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11175,7 +11164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11198,14 +11187,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
         <v>220</v>
       </c>
@@ -11231,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="139"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11252,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="139"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11273,7 +11262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="139" t="s">
         <v>1</v>
       </c>
@@ -11296,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="139"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11317,7 +11306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="139"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11338,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="139" t="s">
         <v>2</v>
       </c>
@@ -11361,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="139"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11382,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="139"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11403,7 +11392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="139" t="s">
         <v>3</v>
       </c>
@@ -11426,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="139"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11447,7 +11436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="139"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11468,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="139" t="s">
         <v>4</v>
       </c>
@@ -11491,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="139"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11512,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="139"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11533,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11559,12 +11548,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11574,6 +11557,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11591,14 +11580,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11627,7 +11616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11660,7 +11649,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11693,7 +11682,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11726,7 +11715,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11759,7 +11748,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11792,7 +11781,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11825,7 +11814,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11858,7 +11847,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11891,7 +11880,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11924,7 +11913,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11957,7 +11946,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11990,7 +11979,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12023,7 +12012,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12056,7 +12045,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12089,7 +12078,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12112,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12135,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12158,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12181,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12204,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12227,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12250,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12273,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12296,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12319,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12342,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12365,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12388,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12411,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12434,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12457,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12480,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12503,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12526,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12549,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12572,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12595,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12618,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12641,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12687,22 +12676,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12717,7 +12706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12727,7 +12716,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="113" t="s">
         <v>75</v>
       </c>
@@ -12744,7 +12733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
@@ -12761,7 +12750,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="113" t="s">
         <v>77</v>
       </c>
@@ -12778,7 +12767,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
         <v>78</v>
       </c>
@@ -12795,13 +12784,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12819,14 +12808,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
         <v>224</v>
       </c>
@@ -12836,7 +12825,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12846,7 +12835,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="121" t="s">
         <v>226</v>
       </c>
@@ -12864,7 +12853,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="121" t="s">
         <v>227</v>
       </c>
@@ -12882,7 +12871,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="121" t="s">
         <v>228</v>
       </c>
@@ -12900,7 +12889,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12909,7 +12898,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12920,7 +12909,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="125" t="s">
         <v>73</v>
       </c>
@@ -12938,7 +12927,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="125" t="s">
         <v>7</v>
       </c>
@@ -12956,7 +12945,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="125" t="s">
         <v>8</v>
       </c>
@@ -12974,7 +12963,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="125" t="s">
         <v>10</v>
       </c>
@@ -12992,7 +12981,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="125" t="s">
         <v>13</v>
       </c>
@@ -13009,7 +12998,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="125" t="s">
         <v>14</v>
       </c>
@@ -13026,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="125" t="s">
         <v>27</v>
       </c>
@@ -13043,7 +13032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="125" t="s">
         <v>15</v>
       </c>
@@ -13060,10 +13049,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13084,23 +13073,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1">
+    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>211</v>
       </c>
@@ -13134,7 +13123,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13166,7 +13155,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13194,7 +13183,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13222,7 +13211,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13250,7 +13239,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13281,7 +13270,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13309,7 +13298,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13337,7 +13326,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13365,7 +13354,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13396,7 +13385,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13424,7 +13413,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13452,7 +13441,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13480,7 +13469,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13511,7 +13500,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13539,7 +13528,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13567,7 +13556,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13595,7 +13584,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13626,7 +13615,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13654,7 +13643,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13682,7 +13671,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13710,7 +13699,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13741,7 +13730,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13769,7 +13758,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13797,7 +13786,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13825,12 +13814,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1">
+    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="129" t="s">
         <v>238</v>
       </c>
@@ -13864,7 +13853,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13896,7 +13885,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13924,7 +13913,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13952,7 +13941,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -13980,7 +13969,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14011,7 +14000,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14039,7 +14028,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14067,7 +14056,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14095,7 +14084,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14126,7 +14115,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14154,7 +14143,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14182,7 +14171,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14210,7 +14199,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14241,7 +14230,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14269,7 +14258,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14297,7 +14286,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14325,7 +14314,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14356,7 +14345,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14384,7 +14373,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14412,7 +14401,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14440,7 +14429,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14471,7 +14460,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14499,7 +14488,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14527,7 +14516,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14555,16 +14544,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1">
+    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14592,7 +14581,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14618,7 +14607,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14640,7 +14629,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14665,7 +14654,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14687,7 +14676,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14712,7 +14701,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14734,16 +14723,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1">
+    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14777,7 +14766,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14809,7 +14798,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14837,7 +14826,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14865,7 +14854,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14893,7 +14882,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14924,7 +14913,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14952,7 +14941,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -14980,7 +14969,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15008,7 +14997,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15039,7 +15028,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15067,7 +15056,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15095,7 +15084,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15123,7 +15112,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15154,7 +15143,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15182,7 +15171,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15210,7 +15199,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15238,7 +15227,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15269,7 +15258,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15297,7 +15286,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15325,7 +15314,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15353,7 +15342,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15384,7 +15373,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15412,7 +15401,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15440,7 +15429,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15468,7 +15457,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15499,7 +15488,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15527,7 +15516,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15555,7 +15544,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15583,7 +15572,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15614,7 +15603,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15642,7 +15631,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15670,7 +15659,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15698,7 +15687,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15729,7 +15718,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15757,7 +15746,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15785,7 +15774,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15813,12 +15802,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1">
+    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15852,7 +15841,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15882,7 +15871,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15910,7 +15899,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15938,7 +15927,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -15966,7 +15955,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15987,24 +15976,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16025,7 +16014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="121" t="s">
         <v>248</v>
       </c>
@@ -16045,7 +16034,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16066,12 +16055,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="125" t="s">
         <v>58</v>
       </c>
@@ -16091,7 +16080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="125" t="s">
         <v>136</v>
       </c>
@@ -16111,7 +16100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="125" t="s">
         <v>60</v>
       </c>
@@ -16131,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16139,12 +16128,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16165,16 +16154,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
         <v>238</v>
       </c>
@@ -16197,7 +16186,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>255</v>
@@ -16218,7 +16207,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16241,13 +16230,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16261,7 +16250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="121" t="s">
         <v>197</v>
       </c>
@@ -16297,16 +16286,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16324,7 +16313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>29</v>
       </c>
@@ -16344,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16362,7 +16351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
         <v>187</v>
       </c>
@@ -16382,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16400,7 +16389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
         <v>207</v>
       </c>
@@ -16420,7 +16409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16438,7 +16427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
         <v>57</v>
       </c>
@@ -16458,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16476,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="s">
         <v>34</v>
       </c>
@@ -16496,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16514,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
         <v>59</v>
       </c>
@@ -16534,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16552,10 +16541,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
@@ -16576,15 +16565,15 @@
       <selection activeCell="E19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16627,12 +16616,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16676,7 +16665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16720,7 +16709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16764,7 +16753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16808,7 +16797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16852,7 +16841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="92" t="s">
         <v>187</v>
       </c>
@@ -16896,7 +16885,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
         <v>207</v>
       </c>
@@ -16940,7 +16929,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -16984,7 +16973,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="92" t="s">
         <v>136</v>
       </c>
@@ -17028,7 +17017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17072,7 +17061,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17116,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17160,13 +17149,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="92" t="s">
         <v>63</v>
       </c>
@@ -17210,7 +17199,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="92" t="s">
         <v>64</v>
       </c>
@@ -17254,7 +17243,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -17298,7 +17287,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
         <v>47</v>
       </c>
@@ -17342,16 +17331,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17372,15 +17361,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17399,12 +17388,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17424,7 +17413,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17435,7 +17424,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17473,20 +17462,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17512,7 +17501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17538,7 +17527,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17558,7 +17547,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17578,7 +17567,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17604,7 +17593,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17624,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17647,7 +17636,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17667,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17693,7 +17682,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17713,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17736,7 +17725,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17756,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17782,7 +17771,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17803,7 +17792,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17827,7 +17816,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17848,7 +17837,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17875,7 +17864,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17896,7 +17885,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17922,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17942,7 +17931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17968,7 +17957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -17988,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18014,7 +18003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18034,7 +18023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18054,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18080,7 +18069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18100,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18120,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18146,7 +18135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18166,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18186,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18212,7 +18201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18232,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18252,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18278,7 +18267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18298,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18318,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18344,7 +18333,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18364,7 +18353,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18384,7 +18373,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18407,7 +18396,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18427,7 +18416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18447,7 +18436,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18473,7 +18462,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18493,7 +18482,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18519,7 +18508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18539,7 +18528,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18565,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18603,16 +18592,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18634,7 +18623,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18658,7 +18647,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18676,7 +18665,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18700,7 +18689,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18719,7 +18708,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18743,7 +18732,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18779,14 +18768,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18797,7 +18786,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18812,7 +18801,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18820,7 +18809,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18828,7 +18817,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18836,7 +18825,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18844,7 +18833,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18852,7 +18841,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18860,7 +18849,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18868,7 +18857,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18876,7 +18865,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18887,7 +18876,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18896,7 +18885,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18917,7 +18906,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18934,7 +18923,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18951,7 +18940,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -18968,7 +18957,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -18985,7 +18974,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -19002,7 +18991,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19019,7 +19008,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19036,7 +19025,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19053,7 +19042,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19070,7 +19059,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19093,7 +19082,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19102,7 +19091,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19118,7 +19107,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19126,7 +19115,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19134,7 +19123,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19142,7 +19131,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19150,7 +19139,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19158,7 +19147,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19166,7 +19155,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19174,7 +19163,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19182,7 +19171,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19190,7 +19179,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19218,13 +19207,13 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19248,7 +19237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19276,7 +19265,7 @@
         <v>0.18417555450115231</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19302,7 +19291,7 @@
         <v>0.35582444549884773</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19323,7 +19312,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19345,7 +19334,7 @@
       </c>
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19353,7 +19342,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19361,7 +19350,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19389,7 +19378,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19414,7 +19403,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19434,7 +19423,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19454,7 +19443,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19468,7 +19457,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19512,7 +19501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19556,7 +19545,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19613,14 +19602,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19646,13 +19635,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19676,7 +19665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19699,7 +19688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19719,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19739,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19782,13 +19771,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19838,7 +19827,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19865,10 +19854,10 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19895,10 +19884,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19925,7 +19914,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19949,7 +19938,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -19973,7 +19962,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20002,7 +19991,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20026,7 +20015,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20055,7 +20044,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20094,15 +20083,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20119,7 +20108,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20133,7 +20122,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20147,7 +20136,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20161,7 +20150,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20175,7 +20164,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20189,7 +20178,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20198,7 +20187,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20212,7 +20201,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20224,7 +20213,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20236,7 +20225,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20248,7 +20237,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20260,7 +20249,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20271,7 +20260,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20287,7 +20276,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20301,7 +20290,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20315,7 +20304,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20329,7 +20318,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20343,7 +20332,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20370,15 +20359,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20392,7 +20381,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20404,7 +20393,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20433,17 +20422,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20461,7 +20450,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20478,7 +20467,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20495,7 +20484,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20512,7 +20501,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20529,7 +20518,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20546,7 +20535,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20563,7 +20552,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20580,7 +20569,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20597,7 +20586,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20614,7 +20603,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20631,7 +20620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20648,7 +20637,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20665,7 +20654,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20682,7 +20671,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20699,7 +20688,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20716,7 +20705,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20733,7 +20722,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20750,7 +20739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20767,7 +20756,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20784,7 +20773,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20801,7 +20790,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20818,7 +20807,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20835,7 +20824,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20852,7 +20841,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20869,7 +20858,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20886,7 +20875,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20903,7 +20892,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20920,7 +20909,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20937,7 +20926,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20954,7 +20943,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -20971,7 +20960,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -20988,7 +20977,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21005,7 +20994,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21022,7 +21011,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21039,7 +21028,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21057,7 +21046,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21074,7 +21063,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21091,7 +21080,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="36"/>
     </row>
   </sheetData>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3973BE8-25B5-41DD-BF92-CF7CA0E8246E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167FBBB8-F0BD-4EFA-9AB3-2E36C1ED35FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,14 +91,12 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1290,7 +1288,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4806,18 +4804,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4828,14 +4826,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4844,7 +4842,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4853,17 +4851,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
@@ -4871,7 +4869,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
@@ -4887,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
@@ -4911,7 +4909,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -4919,17 +4917,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
@@ -4937,7 +4935,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
@@ -4945,7 +4943,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
@@ -4953,7 +4951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
@@ -4961,7 +4959,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4970,15 +4968,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -4986,7 +4984,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -4994,7 +4992,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -5002,7 +5000,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -5010,18 +5008,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -5029,7 +5027,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -5037,7 +5035,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -5045,7 +5043,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
@@ -5053,7 +5051,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5062,20 +5060,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
@@ -5083,7 +5081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5093,7 +5091,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5103,7 +5101,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
@@ -5119,7 +5117,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
@@ -5127,16 +5125,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
@@ -5145,7 +5143,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
@@ -5154,7 +5152,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5164,7 +5162,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5175,16 +5173,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
@@ -5193,7 +5191,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5201,7 +5199,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
@@ -5217,7 +5215,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
@@ -5225,12 +5223,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -5238,7 +5236,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
@@ -5254,7 +5252,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5283,15 +5281,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5302,7 +5300,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5311,7 +5309,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -5320,7 +5318,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5329,7 +5327,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5338,77 +5336,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5432,85 +5430,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5530,9 +5528,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5552,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5577,7 +5575,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5602,7 +5600,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5641,22 +5639,22 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
+      <selection activeCell="C7" sqref="C7:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5703,7 +5701,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5754,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5798,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5842,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5888,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5935,29 +5933,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -5984,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -6030,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -6078,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -6122,29 +6120,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.66</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.66</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>5.64</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>5.43</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.91</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -6171,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6215,10 +6213,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6269,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6314,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6363,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6412,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6460,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6504,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6596,10 +6594,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6650,7 +6648,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6698,7 +6696,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6746,7 +6744,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6794,7 +6792,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6839,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6849,7 +6847,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6907,7 +6905,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6962,7 +6960,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -7017,7 +7015,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -7061,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -7118,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7162,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7207,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7251,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7295,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7339,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7358,24 +7356,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7396,16 +7394,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7422,7 +7420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7440,7 +7438,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7458,7 +7456,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7476,7 +7474,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7494,7 +7492,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7512,7 +7510,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7530,7 +7528,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7548,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7566,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7584,7 +7582,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7605,20 +7603,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7665,7 +7663,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7712,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7756,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7800,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7844,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7888,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7932,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7976,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8020,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8064,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8108,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8152,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8196,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8240,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8284,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8300,7 +8298,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8347,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8392,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="B19" s="92" t="s">
         <v>187</v>
       </c>
@@ -8436,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -8480,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="93" t="s">
         <v>57</v>
       </c>
@@ -8524,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8568,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8612,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8656,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8672,7 +8670,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8720,7 +8718,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8764,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8809,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8853,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8897,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8913,7 +8911,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8960,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9004,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9048,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9092,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9136,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9181,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9225,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9269,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9313,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9374,22 +9372,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9424,7 +9422,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9441,7 +9439,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9458,7 +9456,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9475,7 +9473,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9492,7 +9490,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9511,7 +9509,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9530,7 +9528,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9549,7 +9547,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9568,7 +9566,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9585,7 +9583,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9602,7 +9600,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9619,7 +9617,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9636,7 +9634,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="92" t="s">
         <v>187</v>
       </c>
@@ -9655,7 +9653,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="92" t="s">
         <v>207</v>
       </c>
@@ -9674,7 +9672,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9695,7 +9693,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9712,7 +9710,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9731,7 +9729,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9750,7 +9748,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9769,7 +9767,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9788,7 +9786,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9809,7 +9807,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9828,7 +9826,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9845,7 +9843,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9862,7 +9860,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9879,7 +9877,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9898,7 +9896,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9915,7 +9913,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9934,7 +9932,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9951,7 +9949,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9970,7 +9968,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9989,7 +9987,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10008,7 +10006,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10027,7 +10025,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10046,7 +10044,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10065,7 +10063,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10082,7 +10080,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10120,22 +10118,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10170,7 +10168,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10199,7 +10197,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10228,7 +10226,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10257,7 +10255,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10286,7 +10284,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10315,7 +10313,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10336,7 +10334,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10357,7 +10355,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10378,7 +10376,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10399,7 +10397,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10420,7 +10418,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10439,7 +10437,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10458,7 +10456,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10494,15 +10492,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10528,7 +10526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
@@ -10554,7 +10552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10576,7 +10574,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10598,7 +10596,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="138" t="s">
         <v>1</v>
       </c>
@@ -10622,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10643,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10664,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
@@ -10687,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10708,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10729,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="138" t="s">
         <v>3</v>
       </c>
@@ -10752,7 +10750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10773,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10794,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="138" t="s">
         <v>4</v>
       </c>
@@ -10817,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10838,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10859,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="101" t="s">
         <v>172</v>
       </c>
@@ -10882,14 +10880,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
@@ -10915,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10936,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10957,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="138" t="s">
         <v>1</v>
       </c>
@@ -10980,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -11001,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -11022,7 +11020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
@@ -11045,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11066,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11087,7 +11085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="138" t="s">
         <v>3</v>
       </c>
@@ -11110,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11131,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11152,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="138" t="s">
         <v>4</v>
       </c>
@@ -11175,7 +11173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11196,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11217,7 +11215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="101" t="s">
         <v>172</v>
       </c>
@@ -11240,14 +11238,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="103" t="s">
         <v>220</v>
       </c>
@@ -11273,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11294,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11315,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="138" t="s">
         <v>1</v>
       </c>
@@ -11338,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11359,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11380,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="138" t="s">
         <v>2</v>
       </c>
@@ -11403,7 +11401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11424,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11445,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="138" t="s">
         <v>3</v>
       </c>
@@ -11468,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11489,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11510,7 +11508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="138" t="s">
         <v>4</v>
       </c>
@@ -11533,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11554,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11575,7 +11573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
@@ -11601,12 +11599,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11616,6 +11608,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11633,14 +11631,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11669,7 +11667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11702,7 +11700,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11735,7 +11733,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11768,7 +11766,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11801,7 +11799,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11834,7 +11832,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11867,7 +11865,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11900,7 +11898,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11933,7 +11931,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11966,7 +11964,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11999,7 +11997,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -12032,7 +12030,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12065,7 +12063,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12098,7 +12096,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12131,7 +12129,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12154,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12177,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12200,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12223,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12246,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12269,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12292,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12315,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12338,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12361,7 +12359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12384,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12407,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12430,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12453,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12476,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12499,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12522,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12545,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12568,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12591,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12614,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12637,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12660,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12683,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12729,22 +12727,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>26</v>
@@ -12759,7 +12757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12769,7 +12767,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="113" t="s">
         <v>75</v>
       </c>
@@ -12786,7 +12784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
@@ -12803,7 +12801,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="113" t="s">
         <v>77</v>
       </c>
@@ -12820,7 +12818,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="113" t="s">
         <v>78</v>
       </c>
@@ -12837,13 +12835,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12861,14 +12859,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="105" t="s">
         <v>224</v>
       </c>
@@ -12878,7 +12876,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12888,7 +12886,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="121" t="s">
         <v>226</v>
       </c>
@@ -12906,7 +12904,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="121" t="s">
         <v>227</v>
       </c>
@@ -12924,7 +12922,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="121" t="s">
         <v>228</v>
       </c>
@@ -12942,7 +12940,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12951,7 +12949,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12962,7 +12960,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="125" t="s">
         <v>73</v>
       </c>
@@ -12980,7 +12978,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="125" t="s">
         <v>7</v>
       </c>
@@ -12998,7 +12996,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="125" t="s">
         <v>8</v>
       </c>
@@ -13016,7 +13014,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="125" t="s">
         <v>10</v>
       </c>
@@ -13034,7 +13032,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="125" t="s">
         <v>13</v>
       </c>
@@ -13051,7 +13049,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="125" t="s">
         <v>14</v>
       </c>
@@ -13068,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="125" t="s">
         <v>27</v>
       </c>
@@ -13085,7 +13083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="125" t="s">
         <v>15</v>
       </c>
@@ -13102,10 +13100,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13126,23 +13124,23 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1">
       <c r="A1" s="105" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="126" t="s">
         <v>211</v>
       </c>
@@ -13176,7 +13174,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13208,7 +13206,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13236,7 +13234,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13264,7 +13262,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13292,7 +13290,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13323,7 +13321,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13351,7 +13349,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13379,7 +13377,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13407,7 +13405,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13438,7 +13436,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13466,7 +13464,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13494,7 +13492,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13522,7 +13520,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13553,7 +13551,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13581,7 +13579,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13609,7 +13607,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13637,7 +13635,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13668,7 +13666,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13696,7 +13694,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13724,7 +13722,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13752,7 +13750,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13783,7 +13781,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13811,7 +13809,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13839,7 +13837,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13867,12 +13865,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1">
       <c r="A28" s="105" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="129" t="s">
         <v>238</v>
       </c>
@@ -13906,7 +13904,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13938,7 +13936,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13966,7 +13964,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13994,7 +13992,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14022,7 +14020,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14053,7 +14051,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14081,7 +14079,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14109,7 +14107,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14137,7 +14135,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14168,7 +14166,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14196,7 +14194,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14224,7 +14222,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14252,7 +14250,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14283,7 +14281,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14311,7 +14309,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14339,7 +14337,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14367,7 +14365,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14398,7 +14396,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14426,7 +14424,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14454,7 +14452,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14482,7 +14480,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14513,7 +14511,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14541,7 +14539,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14569,7 +14567,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14597,16 +14595,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="129" t="s">
         <v>70</v>
       </c>
@@ -14634,7 +14632,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14660,7 +14658,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14682,7 +14680,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14707,7 +14705,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14729,7 +14727,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14754,7 +14752,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14776,16 +14774,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="129" t="s">
         <v>24</v>
       </c>
@@ -14819,7 +14817,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14851,7 +14849,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14879,7 +14877,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14907,7 +14905,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14935,7 +14933,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14966,7 +14964,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14994,7 +14992,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15022,7 +15020,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15050,7 +15048,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15081,7 +15079,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15109,7 +15107,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15137,7 +15135,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15165,7 +15163,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15196,7 +15194,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15224,7 +15222,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15252,7 +15250,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15280,7 +15278,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15311,7 +15309,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15339,7 +15337,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15367,7 +15365,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15395,7 +15393,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15426,7 +15424,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15454,7 +15452,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15482,7 +15480,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15510,7 +15508,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15541,7 +15539,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15569,7 +15567,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15597,7 +15595,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15625,7 +15623,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15656,7 +15654,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15684,7 +15682,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15712,7 +15710,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15740,7 +15738,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15771,7 +15769,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15799,7 +15797,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15827,7 +15825,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15855,12 +15853,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="129" t="s">
         <v>71</v>
       </c>
@@ -15894,7 +15892,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15924,7 +15922,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15952,7 +15950,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15980,7 +15978,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16008,7 +16006,7 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16029,24 +16027,24 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="133" t="s">
         <v>25</v>
       </c>
@@ -16067,7 +16065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="121" t="s">
         <v>248</v>
       </c>
@@ -16087,7 +16085,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16108,12 +16106,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="125" t="s">
         <v>58</v>
       </c>
@@ -16133,7 +16131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="125" t="s">
         <v>136</v>
       </c>
@@ -16153,7 +16151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="125" t="s">
         <v>60</v>
       </c>
@@ -16173,7 +16171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16181,12 +16179,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>195</v>
@@ -16207,16 +16205,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="133" t="s">
         <v>238</v>
       </c>
@@ -16239,7 +16237,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>255</v>
@@ -16260,7 +16258,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="133" t="s">
         <v>70</v>
       </c>
@@ -16283,13 +16281,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16303,7 +16301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="121" t="s">
         <v>197</v>
       </c>
@@ -16339,16 +16337,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -16366,7 +16364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="92" t="s">
         <v>29</v>
       </c>
@@ -16386,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16404,7 +16402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="92" t="s">
         <v>187</v>
       </c>
@@ -16424,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16442,7 +16440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="92" t="s">
         <v>207</v>
       </c>
@@ -16462,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16480,7 +16478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="92" t="s">
         <v>57</v>
       </c>
@@ -16500,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16518,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="92" t="s">
         <v>34</v>
       </c>
@@ -16538,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16556,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="92" t="s">
         <v>59</v>
       </c>
@@ -16576,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16594,10 +16592,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
@@ -16618,15 +16616,15 @@
       <selection activeCell="E19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16669,12 +16667,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16718,7 +16716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16762,7 +16760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16806,7 +16804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16850,7 +16848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16894,7 +16892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="92" t="s">
         <v>187</v>
       </c>
@@ -16938,7 +16936,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="92" t="s">
         <v>207</v>
       </c>
@@ -16982,7 +16980,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -17026,7 +17024,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="92" t="s">
         <v>136</v>
       </c>
@@ -17070,7 +17068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17114,7 +17112,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17158,7 +17156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17202,13 +17200,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="92" t="s">
         <v>63</v>
       </c>
@@ -17252,7 +17250,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="92" t="s">
         <v>64</v>
       </c>
@@ -17296,7 +17294,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -17340,7 +17338,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="92" t="s">
         <v>47</v>
       </c>
@@ -17384,16 +17382,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17414,15 +17412,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17441,12 +17439,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17466,7 +17464,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17477,7 +17475,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="92" t="s">
         <v>183</v>
       </c>
@@ -17515,20 +17513,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17554,7 +17552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17580,7 +17578,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17600,7 +17598,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17620,7 +17618,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17646,7 +17644,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17666,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17689,7 +17687,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17709,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17735,7 +17733,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17755,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17778,7 +17776,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17798,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17824,7 +17822,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17845,7 +17843,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17869,7 +17867,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17890,7 +17888,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17917,7 +17915,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17938,7 +17936,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17964,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17984,7 +17982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18010,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -18030,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18056,7 +18054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18076,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18096,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18122,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18142,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18162,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18188,7 +18186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18208,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18228,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18254,7 +18252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18274,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18294,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18320,7 +18318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18340,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18360,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18386,7 +18384,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18406,7 +18404,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18426,7 +18424,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18449,7 +18447,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18469,7 +18467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18489,7 +18487,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18515,7 +18513,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18535,7 +18533,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18561,7 +18559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18581,7 +18579,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18607,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18645,16 +18643,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
@@ -18676,7 +18674,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18700,7 +18698,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18718,7 +18716,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18742,7 +18740,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18761,7 +18759,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18785,7 +18783,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18821,14 +18819,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18839,7 +18837,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18854,7 +18852,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -18862,7 +18860,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -18870,7 +18868,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -18878,7 +18876,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -18886,7 +18884,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
@@ -18894,7 +18892,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
@@ -18902,7 +18900,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
@@ -18910,7 +18908,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
@@ -18918,7 +18916,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18929,7 +18927,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18938,7 +18936,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18959,7 +18957,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18976,7 +18974,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18993,7 +18991,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -19010,7 +19008,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -19027,7 +19025,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -19044,7 +19042,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -19061,7 +19059,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -19078,7 +19076,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -19095,7 +19093,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -19112,7 +19110,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -19135,7 +19133,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19144,7 +19142,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19160,7 +19158,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
@@ -19168,7 +19166,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -19176,7 +19174,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
@@ -19184,7 +19182,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
@@ -19192,7 +19190,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
@@ -19200,7 +19198,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
@@ -19208,7 +19206,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
@@ -19216,7 +19214,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
@@ -19224,7 +19222,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
@@ -19232,7 +19230,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -19260,13 +19258,13 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19290,7 +19288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -19318,7 +19316,7 @@
         <v>0.18417555450115231</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -19344,7 +19342,7 @@
         <v>0.35582444549884773</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -19365,7 +19363,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19387,7 +19385,7 @@
       </c>
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19395,7 +19393,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19403,7 +19401,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19431,7 +19429,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19456,7 +19454,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19476,7 +19474,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19496,7 +19494,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19510,7 +19508,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19554,7 +19552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19598,7 +19596,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19655,14 +19653,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19688,13 +19686,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19718,7 +19716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19741,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19761,7 +19759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19781,7 +19779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19824,13 +19822,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19880,7 +19878,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19907,10 +19905,10 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19937,10 +19935,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19967,7 +19965,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19991,7 +19989,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -20015,7 +20013,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20044,7 +20042,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -20068,7 +20066,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20097,7 +20095,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -20136,15 +20134,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20161,7 +20159,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20175,7 +20173,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -20189,7 +20187,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -20203,7 +20201,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -20217,7 +20215,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -20231,7 +20229,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20240,7 +20238,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20256,7 +20254,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20268,7 +20266,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20280,7 +20278,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20292,7 +20290,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20304,7 +20302,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20315,7 +20313,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20331,7 +20329,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20345,7 +20343,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20359,7 +20357,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20373,7 +20371,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20387,7 +20385,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20414,15 +20412,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20436,7 +20434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20448,7 +20446,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20473,21 +20471,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20505,7 +20503,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20522,7 +20520,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20539,7 +20537,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20556,7 +20554,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20573,7 +20571,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20590,7 +20588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20607,7 +20605,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20624,7 +20622,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20641,7 +20639,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20658,7 +20656,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20675,7 +20673,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20692,7 +20690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20709,7 +20707,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20726,7 +20724,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20743,7 +20741,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20760,7 +20758,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20777,7 +20775,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20794,7 +20792,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20811,7 +20809,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20828,7 +20826,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20845,7 +20843,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20862,7 +20860,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20879,7 +20877,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20896,7 +20894,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20913,7 +20911,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20930,7 +20928,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20964,7 +20962,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20981,7 +20979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20998,7 +20996,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -21015,7 +21013,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -21032,7 +21030,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -21049,7 +21047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -21066,7 +21064,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -21083,7 +21081,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -21101,7 +21099,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -21118,7 +21116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21135,7 +21133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="F39" s="36"/>
     </row>
   </sheetData>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B85AF7-C2B3-4232-A824-9065C9E40270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A22E6-69B5-462A-84F1-B0A97E0AB5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" tabRatio="961" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1569,10 +1569,10 @@
     <t>Unit Cost</t>
   </si>
   <si>
-    <t>Max coverage increase per annum</t>
+    <t>Max-increase per annum</t>
   </si>
   <si>
-    <t>Max coverage decrease per annum</t>
+    <t>Max-decrease per annum</t>
   </si>
 </sst>
 </file>
@@ -5601,8 +5601,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16632,12 +16632,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16647,36 +16671,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/inputs/demo_region1_input.xlsx
+++ b/inputs/demo_region1_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A22E6-69B5-462A-84F1-B0A97E0AB5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F269A-48CF-4255-B7D4-64287AC66AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11685" yWindow="-16425" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="340">
   <si>
     <t>year</t>
   </si>
@@ -1554,19 +1554,7 @@
     <t>Child death</t>
   </si>
   <si>
-    <t>PW death</t>
-  </si>
-  <si>
-    <t>Child anaemic</t>
-  </si>
-  <si>
-    <t>PW anaemic</t>
-  </si>
-  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
   </si>
   <si>
     <t>Max-increase per annum</t>
@@ -1574,17 +1562,32 @@
   <si>
     <t>Max-decrease per annum</t>
   </si>
+  <si>
+    <t>Maternal death</t>
+  </si>
+  <si>
+    <t>Child wasting episode</t>
+  </si>
+  <si>
+    <t>Child turning age 5 stunted (over lifetime)</t>
+  </si>
+  <si>
+    <t>Anaemic child (per year)</t>
+  </si>
+  <si>
+    <t>Anaemic pregnant woman (per pregnancy)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1898,7 +1901,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2616,7 +2619,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2652,8 +2655,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2663,7 +2666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2673,16 +2676,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2715,7 +2718,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2730,7 +2733,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2760,7 +2763,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2779,28 +2782,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2903,7 +2906,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2933,7 +2936,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -5128,7 +5131,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -5601,8 +5604,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5635,10 +5638,10 @@
         <v>205</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,10 +6075,10 @@
         <v>201</v>
       </c>
       <c r="F20" s="81">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="81">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,8 +6889,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7186,24 +7189,24 @@
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1_5mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo</f>
-        <v>5.64</v>
+        <f>diarrhoea_6_11mo*frac_diarrhea_severe</f>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo</f>
-        <v>5.43</v>
+        <f>diarrhoea_12_23mo*frac_diarrhea_severe</f>
+        <v>1.0860000000000001</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo</f>
-        <v>1.91</v>
+        <f>diarrhoea_24_59mo*frac_diarrhea_severe</f>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -7373,24 +7376,24 @@
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo</f>
-        <v>1.66</v>
+        <f>diarrhoea_1_5mo*frac_diarrhea_severe</f>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo</f>
-        <v>5.64</v>
+        <f>diarrhoea_6_11mo*frac_diarrhea_severe</f>
+        <v>1.1279999999999999</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo</f>
-        <v>5.43</v>
+        <f>diarrhoea_12_23mo*frac_diarrhea_severe</f>
+        <v>1.0860000000000001</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo</f>
-        <v>1.91</v>
+        <f>diarrhoea_24_59mo*frac_diarrhea_severe</f>
+        <v>0.38200000000000001</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -16632,6 +16635,42 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16641,42 +16680,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -35321,7 +35324,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -35761,7 +35764,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36523,29 +36526,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F68D70-249B-4BD4-B4FA-E42A04973833}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>336</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -36553,7 +36557,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -36569,7 +36573,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -36577,7 +36581,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -36585,7 +36589,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
